--- a/Haushaltsinteressen.xlsx
+++ b/Haushaltsinteressen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeOnD\projects\gw-flat-distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11261F-CEB2-4662-83F1-84F7B0A21930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BEABB-50CC-4D78-8D72-F002A37CB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{575969AB-465A-427A-BC78-B7EE1C5F931F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{575969AB-465A-427A-BC78-B7EE1C5F931F}"/>
   </bookViews>
   <sheets>
     <sheet name="Haushaltswünsche" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -136,12 +136,6 @@
     <t>Kon_Gewicht</t>
   </si>
   <si>
-    <t>Quelle Zufallswerte Haushaltswünsche</t>
-  </si>
-  <si>
-    <t>Quelle Zufallswerte Wohnungsdaten</t>
-  </si>
-  <si>
     <t>Art</t>
   </si>
   <si>
@@ -187,13 +181,22 @@
     <t>Gerne Distanz zu Hund/Katze</t>
   </si>
   <si>
-    <t>Soll</t>
-  </si>
-  <si>
     <t>3,5 ZiWg klein</t>
   </si>
   <si>
     <t>3,5 klein</t>
+  </si>
+  <si>
+    <t>Soll laut aktuellem Wohnungsangebot</t>
+  </si>
+  <si>
+    <t>Soll laut aktueller Wohnungraumvergabe</t>
+  </si>
+  <si>
+    <t>Quelle für initiale Zufallswerte für Haushaltswünsche zum Kopieren</t>
+  </si>
+  <si>
+    <t>Quelle für initiale Zufallswerte für Wohnungsdaten zum Kopieren</t>
   </si>
 </sst>
 </file>
@@ -239,19 +242,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -269,12 +279,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -374,24 +378,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{220DB0DC-9BB2-4FB7-8FAB-4A56D4B0CB29}" name="Haushaltswünsche_tabelle" displayName="Haushaltswünsche_tabelle" ref="A1:O68" totalsRowShown="0" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{220DB0DC-9BB2-4FB7-8FAB-4A56D4B0CB29}" name="Haushaltswünsche_tabelle" displayName="Haushaltswünsche_tabelle" ref="A1:O68" totalsRowShown="0" dataDxfId="35">
   <autoFilter ref="A1:O68" xr:uid="{220DB0DC-9BB2-4FB7-8FAB-4A56D4B0CB29}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{8B9545A9-6C68-48AE-B755-211CBD83F694}" name="id" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{8B9545A9-6C68-48AE-B755-211CBD83F694}" name="id" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{9432D6D6-E753-4E79-B4E9-0D25A623CDCF}" name="Wohnart" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{7FD276AA-31C2-40BD-8CD0-A0B04BF803C9}" name="Gebäude" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{31191F4B-236B-4D9F-81FE-6E3263EAD633}" name="Geb_Gewicht" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{C326CAFE-A1A1-4FD8-A582-78DF25A8BDFC}" name="Etage" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{048ABE38-9F2E-4A81-90BF-6546B5D621B4}" name="Eta_Gewicht" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{EDFF610F-BF69-437E-909A-6FB377BF6B3C}" name="Nachbar" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{91318EAF-597E-4851-AFA5-3EC795C899AF}" name="Nac_Gewicht" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{E93BB0B8-6E27-4E8F-83E9-5490E3D837F5}" name="Kleine_Wohnung" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{517F5226-831F-4AEF-851B-02F3B4D6FC2F}" name="Kle_Gewicht" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{0B8031BC-60CC-4B23-80DF-8B82FBBE48CA}" name="Haustier" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{42CEC65D-E50F-44DF-BF9C-D4A2D564C375}" name="Hau_Gewicht" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{0361707A-F85A-432B-9A6E-EAF3E184D7F9}" name="KonkreteWohnung" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{78CE08A4-602A-415E-B8C0-F2472EEDDC21}" name="Kon_Gewicht" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{23253DDC-D3E5-4F20-A944-8FCCEA1BC72B}" name="Rollitauglich" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{31191F4B-236B-4D9F-81FE-6E3263EAD633}" name="Geb_Gewicht" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{C326CAFE-A1A1-4FD8-A582-78DF25A8BDFC}" name="Etage" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{048ABE38-9F2E-4A81-90BF-6546B5D621B4}" name="Eta_Gewicht" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{EDFF610F-BF69-437E-909A-6FB377BF6B3C}" name="Nachbar" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{91318EAF-597E-4851-AFA5-3EC795C899AF}" name="Nac_Gewicht" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{E93BB0B8-6E27-4E8F-83E9-5490E3D837F5}" name="Kleine_Wohnung" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{517F5226-831F-4AEF-851B-02F3B4D6FC2F}" name="Kle_Gewicht" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{0B8031BC-60CC-4B23-80DF-8B82FBBE48CA}" name="Haustier" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{42CEC65D-E50F-44DF-BF9C-D4A2D564C375}" name="Hau_Gewicht" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{0361707A-F85A-432B-9A6E-EAF3E184D7F9}" name="KonkreteWohnung" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{78CE08A4-602A-415E-B8C0-F2472EEDDC21}" name="Kon_Gewicht" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{23253DDC-D3E5-4F20-A944-8FCCEA1BC72B}" name="Rollitauglich" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,47 +448,47 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6A2032-0AFD-411E-BFFF-CCE40100A937}" name="Quelle_Zufallswerte" displayName="Quelle_Zufallswerte" ref="G2:U69" totalsRowShown="0" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6A2032-0AFD-411E-BFFF-CCE40100A937}" name="Quelle_Zufallswerte" displayName="Quelle_Zufallswerte" ref="G2:U69" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="G2:U69" xr:uid="{AD6A2032-0AFD-411E-BFFF-CCE40100A937}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5D6A38FB-CE3F-4572-B714-571059576587}" name="id" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{036E7D7D-ACBF-4BDF-AB41-F0005EA91489}" name="Wohnart" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{5D6A38FB-CE3F-4572-B714-571059576587}" name="id" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{036E7D7D-ACBF-4BDF-AB41-F0005EA91489}" name="Wohnart" dataDxfId="17">
       <calculatedColumnFormula array="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2BA42BAA-EAB6-4299-B29A-65463E1CBDE9}" name="Gebäude" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{2BA42BAA-EAB6-4299-B29A-65463E1CBDE9}" name="Gebäude" dataDxfId="16">
       <calculatedColumnFormula array="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2625455C-0ECE-49C5-B8AF-AF244622FA1C}" name="Geb_Gewicht" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{2625455C-0ECE-49C5-B8AF-AF244622FA1C}" name="Geb_Gewicht" dataDxfId="15">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{912E405F-B28B-45F2-BFC1-ECCC7485F64B}" name="Etage" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{912E405F-B28B-45F2-BFC1-ECCC7485F64B}" name="Etage" dataDxfId="14">
       <calculatedColumnFormula array="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BBECB359-AE68-4EAA-B706-21C83F76F3BD}" name="Eta_Gewicht" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{BBECB359-AE68-4EAA-B706-21C83F76F3BD}" name="Eta_Gewicht" dataDxfId="13">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D8BF9B70-FBB7-445A-BF6E-7F2FD00806C1}" name="Nachbar" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{D8BF9B70-FBB7-445A-BF6E-7F2FD00806C1}" name="Nachbar" dataDxfId="12">
       <calculatedColumnFormula array="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A8BAC2D8-EB87-4ADF-B071-96268E34D9EF}" name="Nac_Gewicht" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{A8BAC2D8-EB87-4ADF-B071-96268E34D9EF}" name="Nac_Gewicht" dataDxfId="11">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0B2B4F26-EE61-4EF5-87A1-3363A94BE6D9}" name="Kleine_Wohnung" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{0B2B4F26-EE61-4EF5-87A1-3363A94BE6D9}" name="Kleine_Wohnung" dataDxfId="10">
       <calculatedColumnFormula array="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7ABB4E75-AE57-4183-8650-F8B7F19833A0}" name="Kle_Gewicht" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{7ABB4E75-AE57-4183-8650-F8B7F19833A0}" name="Kle_Gewicht" dataDxfId="9">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D409233C-4152-4DE0-AD24-AFE7C8429032}" name="Haustier" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{D409233C-4152-4DE0-AD24-AFE7C8429032}" name="Haustier" dataDxfId="8">
       <calculatedColumnFormula array="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{814EE540-E0EE-4929-82AE-BEBC93531086}" name="Hau_Gewicht" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{814EE540-E0EE-4929-82AE-BEBC93531086}" name="Hau_Gewicht" dataDxfId="7">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{778C2D86-8D13-42C1-9E58-534EC08C3354}" name="KonkreteWohnung" dataDxfId="14">
+    <tableColumn id="15" xr3:uid="{778C2D86-8D13-42C1-9E58-534EC08C3354}" name="KonkreteWohnung" dataDxfId="6">
       <calculatedColumnFormula array="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BDB5F003-4BCA-4493-A8CE-29E3AE36DBDD}" name="Kon_Gewicht" dataDxfId="13">
+    <tableColumn id="16" xr3:uid="{BDB5F003-4BCA-4493-A8CE-29E3AE36DBDD}" name="Kon_Gewicht" dataDxfId="5">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{0BF78B30-5E57-47C2-B662-B265EC3524E2}" name="Rollitauglich" dataDxfId="4">
@@ -520,10 +524,10 @@
   <autoFilter ref="W2:AB90" xr:uid="{3D61A7B6-4AC9-4DAC-9F10-668D1BC1DFBE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{09D18CC6-2975-4E76-986A-F45F76F7F9DC}" name="WohnungsID"/>
-    <tableColumn id="2" xr3:uid="{D6939518-C9B0-467C-828D-7EA7DEC1D165}" name="Art" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{D6939518-C9B0-467C-828D-7EA7DEC1D165}" name="Art" dataDxfId="3">
       <calculatedColumnFormula array="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E5695D9-0DE0-47D0-AC87-57864722886D}" name="Gebäude" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{3E5695D9-0DE0-47D0-AC87-57864722886D}" name="Gebäude" dataDxfId="2">
       <calculatedColumnFormula array="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{7ABA3A91-D1EF-40AD-B35E-05FC4CAD53CB}" name="Etage" dataDxfId="1">
@@ -850,7 +854,7 @@
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -879,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -921,13 +925,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -935,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -992,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1019,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1049,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1106,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1163,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1220,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R7">
         <f>COUNTIF(Haushaltswünsche_tabelle[Wohnart],"3,5 ZiWg klein")</f>
@@ -1277,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1318,7 +1322,7 @@
       <c r="O8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <f>SUM(S2:S7)</f>
         <v>67</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1355,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
@@ -1375,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1422,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1469,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1516,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1563,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1610,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1657,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1704,7 +1708,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1751,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -1798,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1845,7 +1849,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1892,7 +1896,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1939,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1986,7 +1990,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -2033,7 +2037,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -2080,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -2127,7 +2131,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -2174,7 +2178,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -2221,7 +2225,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -2268,7 +2272,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -2315,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -2362,7 +2366,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -2409,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -2436,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L32" s="1">
         <v>7</v>
@@ -2456,7 +2460,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -2503,7 +2507,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2550,7 +2554,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -2577,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L35" s="1">
         <v>9</v>
@@ -2597,7 +2601,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -2624,7 +2628,7 @@
         <v>4</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L36" s="1">
         <v>9</v>
@@ -2644,7 +2648,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -2691,7 +2695,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2718,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
@@ -2738,7 +2742,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2785,7 +2789,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2832,7 +2836,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2859,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L41" s="1">
         <v>2</v>
@@ -2879,7 +2883,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -2906,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L42" s="1">
         <v>7</v>
@@ -2926,7 +2930,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2973,7 +2977,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -3020,7 +3024,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -3067,7 +3071,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -3114,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -3161,7 +3165,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -3188,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L48" s="1">
         <v>10</v>
@@ -3208,7 +3212,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -3255,7 +3259,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -3302,7 +3306,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -3329,7 +3333,7 @@
         <v>5</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L51" s="1">
         <v>4</v>
@@ -3349,7 +3353,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -3376,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
@@ -3396,7 +3400,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -3423,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L53" s="1">
         <v>9</v>
@@ -3443,7 +3447,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -3490,7 +3494,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -3537,7 +3541,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -3584,7 +3588,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -3611,7 +3615,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L57" s="1">
         <v>7</v>
@@ -3631,7 +3635,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
@@ -3678,7 +3682,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -3725,7 +3729,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
@@ -3772,7 +3776,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>4</v>
@@ -3819,7 +3823,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -3866,7 +3870,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -3913,7 +3917,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -3960,7 +3964,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
@@ -3987,7 +3991,7 @@
         <v>9</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
@@ -4007,7 +4011,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -4054,7 +4058,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -4101,7 +4105,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
@@ -4157,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B63C1F7-E3B7-4BC1-85D0-A2623DC02F15}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4173,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4188,10 +4192,10 @@
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
@@ -4202,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -4232,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -4262,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -4292,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -4322,7 +4326,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -4352,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -4367,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I7">
         <f>COUNTIF(Wohnungsdaten_tabelle[Art],"3,5 ZiWg klein")</f>
@@ -4382,7 +4386,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -4396,7 +4400,7 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f>SUM(J2:J7)</f>
         <v>88</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -4426,7 +4430,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -4446,7 +4450,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -4466,7 +4470,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -4486,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -4506,7 +4510,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -4526,7 +4530,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -4546,7 +4550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -4566,7 +4570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -4586,7 +4590,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -4606,7 +4610,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -4626,7 +4630,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -4646,7 +4650,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -4666,7 +4670,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -4686,7 +4690,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -4706,7 +4710,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -4726,7 +4730,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -4746,7 +4750,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -4766,7 +4770,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -4786,7 +4790,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -4806,7 +4810,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -4826,7 +4830,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -4846,7 +4850,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -4866,7 +4870,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -4886,7 +4890,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -4906,7 +4910,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -4926,7 +4930,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -4946,7 +4950,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -4966,7 +4970,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -4986,7 +4990,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -5006,7 +5010,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -5026,7 +5030,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -5046,7 +5050,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -5066,7 +5070,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -5086,7 +5090,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -5106,7 +5110,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -5126,7 +5130,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -5146,7 +5150,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -5166,7 +5170,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -5186,7 +5190,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -5206,7 +5210,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -5226,7 +5230,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -5246,7 +5250,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -5266,7 +5270,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -5286,7 +5290,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -5306,7 +5310,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -5326,7 +5330,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -5346,7 +5350,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -5366,7 +5370,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -5386,7 +5390,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -5406,7 +5410,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -5426,7 +5430,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -5446,7 +5450,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -5466,7 +5470,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -5486,7 +5490,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -5506,7 +5510,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -5526,7 +5530,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -5546,7 +5550,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -5566,7 +5570,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -5586,7 +5590,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -5606,7 +5610,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -5626,7 +5630,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -5646,7 +5650,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -5666,7 +5670,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -5686,7 +5690,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -5706,7 +5710,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -5726,7 +5730,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -5746,7 +5750,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -5766,7 +5770,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -5786,7 +5790,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -5806,7 +5810,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -5826,7 +5830,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -5846,7 +5850,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -5866,7 +5870,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -5886,7 +5890,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -5906,7 +5910,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -5926,7 +5930,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -5946,7 +5950,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -5966,7 +5970,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -5986,7 +5990,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -6006,7 +6010,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -6035,8 +6039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A377F6-BF96-4CE6-B436-5EC800737A20}">
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6073,22 +6077,27 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="W1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="W1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -6104,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -6149,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="s">
         <v>1</v>
@@ -6183,51 +6192,51 @@
       </c>
       <c r="I3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J3" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L62" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N62" ca="1" si="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P62" ca="1" si="2">RANDBETWEEN(0,10)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R62" ca="1" si="3">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S3" s="1" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" ref="T3:T62" ca="1" si="4">RANDBETWEEN(0,10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6236,23 +6245,23 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" s="3" t="str" cm="1">
+      <c r="X3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X3" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y3" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y3" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z3" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z3" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="str" cm="1">
         <f t="array" aca="1" ref="AA3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB3" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB3" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -6262,14 +6271,14 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6277,7 +6286,7 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J62" ca="1" si="5">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6285,56 +6294,56 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" s="1" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
-      <c r="X4" s="3" t="str" cm="1">
+      <c r="X4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X4" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y4" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y4" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z4" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z4" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>1</v>
       </c>
@@ -6342,7 +6351,7 @@
         <f t="array" aca="1" ref="AA4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB4" s="3" t="str">
+      <c r="AB4" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -6356,15 +6365,15 @@
       </c>
       <c r="H5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6372,15 +6381,15 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6388,48 +6397,48 @@
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S5" s="1" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" s="3" t="str" cm="1">
+      <c r="X5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>3,5 ZiWg klein</v>
       </c>
-      <c r="Y5" s="3" t="str" cm="1">
+      <c r="Y5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y5" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z5" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z5" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="str" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB5" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB5" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -6440,31 +6449,31 @@
       </c>
       <c r="H6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M6" s="1" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6472,48 +6481,48 @@
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
-      <c r="X6" s="3" t="str" cm="1">
+      <c r="X6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X6" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y6" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y6" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z6" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z6" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
       <c r="AA6" t="str" cm="1">
         <f t="array" aca="1" ref="AA6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB6" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB6" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -6523,22 +6532,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6546,15 +6555,15 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6562,23 +6571,23 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S7" s="1" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6587,23 +6596,23 @@
       <c r="W7">
         <v>5</v>
       </c>
-      <c r="X7" s="3" t="str" cm="1">
+      <c r="X7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X7" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
-      </c>
-      <c r="Y7" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y7" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z7" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z7" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="str" cm="1">
         <f t="array" aca="1" ref="AA7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB7" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB7" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -6613,14 +6622,14 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6628,7 +6637,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6636,15 +6645,15 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M8" s="1" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6652,23 +6661,23 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U8" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6677,23 +6686,23 @@
       <c r="W8">
         <v>6</v>
       </c>
-      <c r="X8" s="3" t="str" cm="1">
+      <c r="X8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X8" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>4,5 ZiWg</v>
       </c>
-      <c r="Y8" s="3" t="str" cm="1">
+      <c r="Y8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y8" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Riegel</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="str" cm="1">
         <f t="array" aca="1" ref="AA8" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB8" s="3" t="str">
+      <c r="AB8" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -6703,22 +6712,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6726,23 +6735,23 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -6750,62 +6759,62 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S9" s="1" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
-      <c r="X9" s="3" t="str" cm="1">
+      <c r="X9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X9" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y9" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y9" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="str" cm="1">
         <f t="array" aca="1" ref="AA9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB9" s="3" t="str">
+      <c r="AB9" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6813,27 +6822,27 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" s="1" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -6841,11 +6850,11 @@
       </c>
       <c r="S10" s="1" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6854,53 +6863,53 @@
       <c r="W10">
         <v>8</v>
       </c>
-      <c r="X10" s="3" t="str" cm="1">
+      <c r="X10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X10" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>5,5 ZiWg</v>
       </c>
-      <c r="Y10" s="3" t="str" cm="1">
+      <c r="Y10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y10" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z10" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z10" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="str" cm="1">
         <f t="array" aca="1" ref="AA10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
@@ -6908,7 +6917,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6916,23 +6925,23 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S11" s="1" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6941,37 +6950,37 @@
       <c r="W11">
         <v>9</v>
       </c>
-      <c r="X11" s="3" t="str" cm="1">
+      <c r="X11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y11" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y11" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z11" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z11" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="str" cm="1">
         <f t="array" aca="1" ref="AA11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB11" s="3" t="str">
+      <c r="AB11" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6979,47 +6988,47 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12" s="1" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S12" s="1" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U12" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7028,15 +7037,15 @@
       <c r="W12">
         <v>10</v>
       </c>
-      <c r="X12" s="3" t="str" cm="1">
+      <c r="X12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X12" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y12" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y12" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>1</v>
       </c>
@@ -7044,21 +7053,21 @@
         <f t="array" aca="1" ref="AA12" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB12" s="3" t="str">
+      <c r="AB12" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>11</v>
       </c>
       <c r="H13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7074,15 +7083,15 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M13" s="1" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7090,11 +7099,11 @@
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -7102,11 +7111,11 @@
       </c>
       <c r="S13" s="1" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7115,15 +7124,15 @@
       <c r="W13">
         <v>11</v>
       </c>
-      <c r="X13" s="3" t="str" cm="1">
+      <c r="X13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X13" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>3,5 ZiWg</v>
       </c>
-      <c r="Y13" s="3" t="str" cm="1">
+      <c r="Y13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y13" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z13" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z13" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
@@ -7131,29 +7140,29 @@
         <f t="array" aca="1" ref="AA13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB13" s="3" t="str">
+      <c r="AB13" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1">
         <v>12</v>
       </c>
       <c r="H14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7161,81 +7170,81 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M14" s="1" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" s="1" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W14">
         <v>12</v>
       </c>
-      <c r="X14" s="3" t="str" cm="1">
+      <c r="X14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X14" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y14" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y14" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z14" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z14" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="str" cm="1">
         <f t="array" aca="1" ref="AA14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB14" s="3" t="str">
+      <c r="AB14" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7243,7 +7252,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7251,11 +7260,11 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -7263,7 +7272,7 @@
       </c>
       <c r="O15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -7271,7 +7280,7 @@
       </c>
       <c r="Q15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -7279,11 +7288,11 @@
       </c>
       <c r="S15" s="1" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7292,23 +7301,23 @@
       <c r="W15">
         <v>13</v>
       </c>
-      <c r="X15" s="3" t="str" cm="1">
+      <c r="X15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X15" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y15" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y15" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z15" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z15" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="str" cm="1">
         <f t="array" aca="1" ref="AA15" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB15" s="3" t="str">
+      <c r="AB15" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -7325,82 +7334,82 @@
       </c>
       <c r="H16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S16" s="1" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W16">
         <v>14</v>
       </c>
-      <c r="X16" s="3" t="str" cm="1">
+      <c r="X16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X16" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
-      </c>
-      <c r="Y16" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y16" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="str" cm="1">
         <f t="array" aca="1" ref="AA16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB16" s="3" t="str">
+      <c r="AB16" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
@@ -7415,11 +7424,11 @@
       </c>
       <c r="H17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -7431,11 +7440,11 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M17" s="1" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -7443,52 +7452,52 @@
       </c>
       <c r="O17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S17" s="1" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W17">
         <v>15</v>
       </c>
-      <c r="X17" s="3" t="str" cm="1">
+      <c r="X17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X17" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y17" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y17" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z17" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z17" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA17" t="str" cm="1">
         <f t="array" aca="1" ref="AA17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB17" s="3" t="str">
+      <c r="AB17" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -7505,15 +7514,15 @@
       </c>
       <c r="H18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7521,71 +7530,71 @@
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18" s="1" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S18" s="1" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W18">
         <v>16</v>
       </c>
-      <c r="X18" s="3" t="str" cm="1">
+      <c r="X18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X18" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y18" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y18" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z18" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z18" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA18" t="str" cm="1">
         <f t="array" aca="1" ref="AA18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB18" s="3" t="str">
+      <c r="AB18" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7595,15 +7604,15 @@
       </c>
       <c r="H19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7615,7 +7624,7 @@
       </c>
       <c r="M19" s="1" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -7627,48 +7636,48 @@
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S19" s="1" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W19">
         <v>17</v>
       </c>
-      <c r="X19" s="3" t="str" cm="1">
+      <c r="X19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X19" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y19" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y19" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z19" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z19" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="str" cm="1">
         <f t="array" aca="1" ref="AA19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB19" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB19" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -7685,15 +7694,15 @@
       </c>
       <c r="H20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7701,71 +7710,71 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M20" s="1" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W20">
         <v>18</v>
       </c>
-      <c r="X20" s="3" t="str" cm="1">
+      <c r="X20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X20" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
-      </c>
-      <c r="Y20" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y20" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z20" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z20" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
       <c r="AA20" t="str" cm="1">
         <f t="array" aca="1" ref="AA20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB20" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB20" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7775,7 +7784,7 @@
       </c>
       <c r="H21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7783,23 +7792,23 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7807,48 +7816,48 @@
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S21" s="1" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W21">
         <v>19</v>
       </c>
-      <c r="X21" s="3" t="str" cm="1">
+      <c r="X21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X21" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y21" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y21" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="str" cm="1">
         <f t="array" aca="1" ref="AA21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB21" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB21" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -7859,80 +7868,80 @@
       </c>
       <c r="H22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M22" s="1" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W22">
         <v>20</v>
       </c>
-      <c r="X22" s="3" t="str" cm="1">
+      <c r="X22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X22" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>2,5 ZiWg</v>
       </c>
-      <c r="Y22" s="3" t="str" cm="1">
+      <c r="Y22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y22" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z22" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z22" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="str" cm="1">
         <f t="array" aca="1" ref="AA22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB22" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB22" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -7943,7 +7952,7 @@
       </c>
       <c r="H23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7951,47 +7960,47 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S23" s="1" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8000,23 +8009,23 @@
       <c r="W23">
         <v>21</v>
       </c>
-      <c r="X23" s="3" t="str" cm="1">
+      <c r="X23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X23" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>3,5 ZiWg</v>
       </c>
-      <c r="Y23" s="3" t="str" cm="1">
+      <c r="Y23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y23" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
       <c r="AA23" t="str" cm="1">
         <f t="array" aca="1" ref="AA23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB23" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB23" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8031,11 +8040,11 @@
       </c>
       <c r="I24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8043,15 +8052,15 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8059,23 +8068,23 @@
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S24" s="1" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8084,23 +8093,23 @@
       <c r="W24">
         <v>22</v>
       </c>
-      <c r="X24" s="3" t="str" cm="1">
+      <c r="X24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X24" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y24" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y24" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z24" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z24" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24" t="str" cm="1">
         <f t="array" aca="1" ref="AA24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB24" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB24" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8111,11 +8120,11 @@
       </c>
       <c r="H25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -8127,27 +8136,27 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -8155,36 +8164,36 @@
       </c>
       <c r="S25" s="1" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W25">
         <v>23</v>
       </c>
-      <c r="X25" s="3" t="str" cm="1">
+      <c r="X25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X25" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y25" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y25" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z25" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z25" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA25" t="str" cm="1">
         <f t="array" aca="1" ref="AA25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB25" s="3" t="str">
+      <c r="AB25" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8195,39 +8204,39 @@
       </c>
       <c r="H26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M26" s="1" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -8235,15 +8244,15 @@
       </c>
       <c r="R26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8252,23 +8261,23 @@
       <c r="W26">
         <v>24</v>
       </c>
-      <c r="X26" s="3" t="str" cm="1">
+      <c r="X26" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X26" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
-      </c>
-      <c r="Y26" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y26" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y26" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z26" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z26" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="str" cm="1">
         <f t="array" aca="1" ref="AA26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB26" s="3" t="str">
+      <c r="AB26" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8279,15 +8288,15 @@
       </c>
       <c r="H27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8295,15 +8304,15 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8311,48 +8320,48 @@
       </c>
       <c r="P27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" cm="1">
         <f t="array" aca="1" ref="S27" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W27">
         <v>25</v>
       </c>
-      <c r="X27" s="3" t="str" cm="1">
+      <c r="X27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X27" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y27" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y27" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z27" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z27" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="str" cm="1">
         <f t="array" aca="1" ref="AA27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB27" s="3" t="str">
+      <c r="AB27" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8363,15 +8372,15 @@
       </c>
       <c r="H28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8379,11 +8388,11 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -8399,46 +8408,46 @@
       </c>
       <c r="Q28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" s="1" cm="1">
         <f t="array" aca="1" ref="S28" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U28" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W28">
         <v>26</v>
       </c>
-      <c r="X28" s="3" t="str" cm="1">
+      <c r="X28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X28" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
-      </c>
-      <c r="Y28" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y28" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z28" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z28" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA28" t="str" cm="1">
         <f t="array" aca="1" ref="AA28" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB28" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB28" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -8447,7 +8456,7 @@
       </c>
       <c r="H29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8455,7 +8464,7 @@
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8463,15 +8472,15 @@
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M29" s="1" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8479,15 +8488,15 @@
       </c>
       <c r="P29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S29" s="1" cm="1">
         <f t="array" aca="1" ref="S29" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
@@ -8504,23 +8513,23 @@
       <c r="W29">
         <v>27</v>
       </c>
-      <c r="X29" s="3" t="str" cm="1">
+      <c r="X29" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X29" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y29" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y29" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y29" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="str" cm="1">
         <f t="array" aca="1" ref="AA29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB29" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB29" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8531,31 +8540,31 @@
       </c>
       <c r="H30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M30" s="1" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8563,7 +8572,7 @@
       </c>
       <c r="P30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -8575,11 +8584,11 @@
       </c>
       <c r="S30" s="1" cm="1">
         <f t="array" aca="1" ref="S30" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8588,23 +8597,23 @@
       <c r="W30">
         <v>28</v>
       </c>
-      <c r="X30" s="3" t="str" cm="1">
+      <c r="X30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X30" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y30" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y30" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z30" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z30" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="str" cm="1">
         <f t="array" aca="1" ref="AA30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB30" s="3" t="str">
+      <c r="AB30" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8619,15 +8628,15 @@
       </c>
       <c r="I31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -8635,35 +8644,35 @@
       </c>
       <c r="M31" s="1" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S31" s="1" cm="1">
         <f t="array" aca="1" ref="S31" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8672,23 +8681,23 @@
       <c r="W31">
         <v>29</v>
       </c>
-      <c r="X31" s="3" t="str" cm="1">
+      <c r="X31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X31" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>4,5 ZiWg</v>
       </c>
-      <c r="Y31" s="3" t="str" cm="1">
+      <c r="Y31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y31" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z31" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z31" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="str" cm="1">
         <f t="array" aca="1" ref="AA31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB31" s="3" t="str">
+      <c r="AB31" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8715,15 +8724,15 @@
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8735,44 +8744,44 @@
       </c>
       <c r="Q32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S32" s="1" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W32">
         <v>30</v>
       </c>
-      <c r="X32" s="3" t="str" cm="1">
+      <c r="X32" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X32" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y32" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y32" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y32" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z32" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z32" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="str" cm="1">
         <f t="array" aca="1" ref="AA32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB32" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB32" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8783,15 +8792,15 @@
       </c>
       <c r="H33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8799,15 +8808,15 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M33" s="1" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8815,23 +8824,23 @@
       </c>
       <c r="P33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S33" s="1" cm="1">
         <f t="array" aca="1" ref="S33" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8840,15 +8849,15 @@
       <c r="W33">
         <v>31</v>
       </c>
-      <c r="X33" s="3" t="str" cm="1">
+      <c r="X33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X33" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y33" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y33" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z33" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z33" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
@@ -8856,7 +8865,7 @@
         <f t="array" aca="1" ref="AA33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB33" s="3" t="str">
+      <c r="AB33" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8867,31 +8876,31 @@
       </c>
       <c r="H34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8899,48 +8908,48 @@
       </c>
       <c r="P34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S34" s="1" cm="1">
         <f t="array" aca="1" ref="S34" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W34">
         <v>32</v>
       </c>
-      <c r="X34" s="3" t="str" cm="1">
+      <c r="X34" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X34" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>5,5 ZiWg</v>
       </c>
-      <c r="Y34" s="3" t="str" cm="1">
+      <c r="Y34" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y34" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z34" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z34" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
       <c r="AA34" t="str" cm="1">
         <f t="array" aca="1" ref="AA34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB34" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB34" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -8951,7 +8960,7 @@
       </c>
       <c r="H35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8959,7 +8968,7 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8967,15 +8976,15 @@
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M35" s="1" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8983,7 +8992,7 @@
       </c>
       <c r="P35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -8991,40 +9000,40 @@
       </c>
       <c r="R35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S35" s="1" cm="1">
         <f t="array" aca="1" ref="S35" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W35">
         <v>33</v>
       </c>
-      <c r="X35" s="3" t="str" cm="1">
+      <c r="X35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X35" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y35" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y35" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z35" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z35" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA35" t="str" cm="1">
         <f t="array" aca="1" ref="AA35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB35" s="3" t="str">
+      <c r="AB35" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9035,7 +9044,7 @@
       </c>
       <c r="H36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9043,35 +9052,35 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="1" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -9079,11 +9088,11 @@
       </c>
       <c r="S36" s="1" cm="1">
         <f t="array" aca="1" ref="S36" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9092,23 +9101,23 @@
       <c r="W36">
         <v>34</v>
       </c>
-      <c r="X36" s="3" t="str" cm="1">
+      <c r="X36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X36" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>1,5 ZiWg</v>
       </c>
-      <c r="Y36" s="3" t="str" cm="1">
+      <c r="Y36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y36" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z36" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z36" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="str" cm="1">
         <f t="array" aca="1" ref="AA36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB36" s="3" t="str">
+      <c r="AB36" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9119,15 +9128,15 @@
       </c>
       <c r="H37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9135,15 +9144,15 @@
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9151,50 +9160,50 @@
       </c>
       <c r="P37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S37" s="1" cm="1">
         <f t="array" aca="1" ref="S37" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W37">
         <v>35</v>
       </c>
-      <c r="X37" s="3" t="str" cm="1">
+      <c r="X37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X37" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>2,5 ZiWg</v>
       </c>
-      <c r="Y37" s="3" t="str" cm="1">
+      <c r="Y37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y37" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z37" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z37" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA37" t="str" cm="1">
         <f t="array" aca="1" ref="AA37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB37" s="3" t="str">
+      <c r="AB37" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
     </row>
     <row r="38" spans="7:28" x14ac:dyDescent="0.35">
@@ -9203,15 +9212,15 @@
       </c>
       <c r="H38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I38" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9219,15 +9228,15 @@
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M38" s="1" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9235,48 +9244,48 @@
       </c>
       <c r="P38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1" cm="1">
         <f t="array" aca="1" ref="S38" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W38">
         <v>36</v>
       </c>
-      <c r="X38" s="3" t="str" cm="1">
+      <c r="X38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X38" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y38" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y38" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z38" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z38" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA38" t="str" cm="1">
         <f t="array" aca="1" ref="AA38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB38" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB38" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9287,11 +9296,11 @@
       </c>
       <c r="H39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -9303,15 +9312,15 @@
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M39" s="1" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9319,23 +9328,23 @@
       </c>
       <c r="P39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S39" s="1" cm="1">
         <f t="array" aca="1" ref="S39" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9344,23 +9353,23 @@
       <c r="W39">
         <v>37</v>
       </c>
-      <c r="X39" s="3" t="str" cm="1">
+      <c r="X39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X39" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y39" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y39" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="Z39" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA39" t="str" cm="1">
         <f t="array" aca="1" ref="AA39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB39" s="3" t="str">
+      <c r="AB39" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9371,11 +9380,11 @@
       </c>
       <c r="H40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -9383,68 +9392,68 @@
       </c>
       <c r="K40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="1" cm="1">
         <f t="array" aca="1" ref="S40" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="T40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W40">
         <v>38</v>
       </c>
-      <c r="X40" s="3" t="str" cm="1">
+      <c r="X40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X40" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y40" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y40" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z40" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z40" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="str" cm="1">
         <f t="array" aca="1" ref="AA40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB40" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB40" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9455,15 +9464,15 @@
       </c>
       <c r="H41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9475,11 +9484,11 @@
       </c>
       <c r="M41" s="1" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9487,7 +9496,7 @@
       </c>
       <c r="P41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9495,11 +9504,11 @@
       </c>
       <c r="R41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S41" s="1" cm="1">
         <f t="array" aca="1" ref="S41" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="T41" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -9512,15 +9521,15 @@
       <c r="W41">
         <v>39</v>
       </c>
-      <c r="X41" s="3" t="str" cm="1">
+      <c r="X41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X41" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y41" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y41" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
@@ -9528,7 +9537,7 @@
         <f t="array" aca="1" ref="AA41" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB41" s="3" t="str">
+      <c r="AB41" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9539,7 +9548,7 @@
       </c>
       <c r="H42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9547,7 +9556,7 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9555,15 +9564,15 @@
       </c>
       <c r="L42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9571,48 +9580,48 @@
       </c>
       <c r="P42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q42" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S42" s="1" cm="1">
         <f t="array" aca="1" ref="S42" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W42">
         <v>40</v>
       </c>
-      <c r="X42" s="3" t="str" cm="1">
+      <c r="X42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X42" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y42" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y42" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
       <c r="AA42" t="str" cm="1">
         <f t="array" aca="1" ref="AA42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB42" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB42" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9627,51 +9636,51 @@
       </c>
       <c r="I43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M43" s="1" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q43" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" s="1" cm="1">
         <f t="array" aca="1" ref="S43" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9680,23 +9689,23 @@
       <c r="W43">
         <v>41</v>
       </c>
-      <c r="X43" s="3" t="str" cm="1">
+      <c r="X43" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X43" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y43" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y43" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y43" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Riegel</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA43" t="str" cm="1">
         <f t="array" aca="1" ref="AA43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB43" s="3" t="str">
+      <c r="AB43" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9715,7 +9724,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9723,15 +9732,15 @@
       </c>
       <c r="L44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M44" s="1" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9739,48 +9748,48 @@
       </c>
       <c r="P44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q44" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S44" s="1" cm="1">
         <f t="array" aca="1" ref="S44" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W44">
         <v>42</v>
       </c>
-      <c r="X44" s="3" t="str" cm="1">
+      <c r="X44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X44" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
-      </c>
-      <c r="Y44" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y44" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z44" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z44" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
       <c r="AA44" t="str" cm="1">
         <f t="array" aca="1" ref="AA44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB44" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB44" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9799,7 +9808,7 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9807,15 +9816,15 @@
       </c>
       <c r="L45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9823,23 +9832,23 @@
       </c>
       <c r="P45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q45" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S45" s="1" cm="1">
         <f t="array" aca="1" ref="S45" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U45" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9848,23 +9857,23 @@
       <c r="W45">
         <v>43</v>
       </c>
-      <c r="X45" s="3" t="str" cm="1">
+      <c r="X45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X45" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y45" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y45" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z45" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z45" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA45" t="str" cm="1">
         <f t="array" aca="1" ref="AA45" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB45" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB45" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9875,31 +9884,31 @@
       </c>
       <c r="H46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M46" s="1" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9915,32 +9924,32 @@
       </c>
       <c r="R46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S46" s="1" cm="1">
         <f t="array" aca="1" ref="S46" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W46">
         <v>44</v>
       </c>
-      <c r="X46" s="3" t="str" cm="1">
+      <c r="X46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X46" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
-      </c>
-      <c r="Y46" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y46" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z46" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z46" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
@@ -9948,7 +9957,7 @@
         <f t="array" aca="1" ref="AA46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB46" s="3" t="str">
+      <c r="AB46" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -9959,27 +9968,27 @@
       </c>
       <c r="H47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -9987,27 +9996,27 @@
       </c>
       <c r="O47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q47" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S47" s="1" cm="1">
         <f t="array" aca="1" ref="S47" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10016,23 +10025,23 @@
       <c r="W47">
         <v>45</v>
       </c>
-      <c r="X47" s="3" t="str" cm="1">
+      <c r="X47" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X47" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y47" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y47" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y47" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA47" t="str" cm="1">
         <f t="array" aca="1" ref="AA47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB47" s="3" t="str">
+      <c r="AB47" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10047,27 +10056,27 @@
       </c>
       <c r="I48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K48" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M48" s="1" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10075,19 +10084,19 @@
       </c>
       <c r="P48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q48" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S48" s="1" cm="1">
         <f t="array" aca="1" ref="S48" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10100,23 +10109,23 @@
       <c r="W48">
         <v>46</v>
       </c>
-      <c r="X48" s="3" t="str" cm="1">
+      <c r="X48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X48" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y48" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y48" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z48" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z48" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA48" t="str" cm="1">
         <f t="array" aca="1" ref="AA48" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB48" s="3" t="str">
+      <c r="AB48" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10127,31 +10136,31 @@
       </c>
       <c r="H49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K49" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1" cm="1">
         <f t="array" aca="1" ref="M49" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10159,7 +10168,7 @@
       </c>
       <c r="P49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q49" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -10167,15 +10176,15 @@
       </c>
       <c r="R49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1" cm="1">
         <f t="array" aca="1" ref="S49" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10184,23 +10193,23 @@
       <c r="W49">
         <v>47</v>
       </c>
-      <c r="X49" s="3" t="str" cm="1">
+      <c r="X49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X49" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y49" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y49" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z49" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z49" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA49" t="str" cm="1">
         <f t="array" aca="1" ref="AA49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB49" s="3" t="str">
+      <c r="AB49" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10211,15 +10220,15 @@
       </c>
       <c r="H50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K50" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10227,15 +10236,15 @@
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" s="1" cm="1">
         <f t="array" aca="1" ref="M50" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10243,7 +10252,7 @@
       </c>
       <c r="P50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q50" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -10251,40 +10260,40 @@
       </c>
       <c r="R50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S50" s="1" cm="1">
         <f t="array" aca="1" ref="S50" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="T50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W50">
         <v>48</v>
       </c>
-      <c r="X50" s="3" t="str" cm="1">
+      <c r="X50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X50" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y50" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y50" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="Z50" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA50" t="str" cm="1">
         <f t="array" aca="1" ref="AA50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB50" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB50" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10299,15 +10308,15 @@
       </c>
       <c r="I51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I51" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K51" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -10315,52 +10324,52 @@
       </c>
       <c r="M51" s="1" cm="1">
         <f t="array" aca="1" ref="M51" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q51" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S51" s="1" cm="1">
         <f t="array" aca="1" ref="S51" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="T51" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W51">
         <v>49</v>
       </c>
-      <c r="X51" s="3" t="str" cm="1">
+      <c r="X51" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X51" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y51" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y51" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y51" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z51" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>4</v>
       </c>
@@ -10368,7 +10377,7 @@
         <f t="array" aca="1" ref="AA51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB51" s="3" t="str">
+      <c r="AB51" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10383,11 +10392,11 @@
       </c>
       <c r="I52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I52" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K52" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10395,64 +10404,64 @@
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M52" s="1" cm="1">
         <f t="array" aca="1" ref="M52" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q52" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1" cm="1">
         <f t="array" aca="1" ref="S52" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W52">
         <v>50</v>
       </c>
-      <c r="X52" s="3" t="str" cm="1">
+      <c r="X52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X52" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y52" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y52" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="str" cm="1">
         <f t="array" aca="1" ref="AA52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB52" s="3" t="str">
+      <c r="AB52" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10471,7 +10480,7 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K53" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10479,15 +10488,15 @@
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M53" s="1" cm="1">
         <f t="array" aca="1" ref="M53" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10495,48 +10504,48 @@
       </c>
       <c r="P53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q53" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S53" s="1" cm="1">
         <f t="array" aca="1" ref="S53" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W53">
         <v>51</v>
       </c>
-      <c r="X53" s="3" t="str" cm="1">
+      <c r="X53" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X53" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y53" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y53" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y53" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z53" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z53" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA53" t="str" cm="1">
         <f t="array" aca="1" ref="AA53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB53" s="3" t="str">
+      <c r="AB53" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10551,31 +10560,31 @@
       </c>
       <c r="I54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K54" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M54" s="1" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -10583,7 +10592,7 @@
       </c>
       <c r="Q54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q54" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -10591,36 +10600,36 @@
       </c>
       <c r="S54" s="1" cm="1">
         <f t="array" aca="1" ref="S54" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W54">
         <v>52</v>
       </c>
-      <c r="X54" s="3" t="str" cm="1">
+      <c r="X54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X54" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y54" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y54" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z54" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z54" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA54" t="str" cm="1">
         <f t="array" aca="1" ref="AA54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB54" s="3" t="str">
+      <c r="AB54" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10631,51 +10640,51 @@
       </c>
       <c r="H55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K55" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M55" s="1" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q55" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="1" cm="1">
         <f t="array" aca="1" ref="S55" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10688,15 +10697,15 @@
       <c r="W55">
         <v>53</v>
       </c>
-      <c r="X55" s="3" t="str" cm="1">
+      <c r="X55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X55" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y55" s="3" t="str" cm="1">
+        <v>1,5 ZiWg</v>
+      </c>
+      <c r="Y55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y55" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z55" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z55" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
@@ -10704,7 +10713,7 @@
         <f t="array" aca="1" ref="AA55" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB55" s="3" t="str">
+      <c r="AB55" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10715,7 +10724,7 @@
       </c>
       <c r="H56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10723,47 +10732,47 @@
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K56" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M56" s="1" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q56" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" cm="1">
         <f t="array" aca="1" ref="S56" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="T56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10772,23 +10781,23 @@
       <c r="W56">
         <v>54</v>
       </c>
-      <c r="X56" s="3" t="str" cm="1">
+      <c r="X56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X56" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y56" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y56" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z56" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z56" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA56" t="str" cm="1">
         <f t="array" aca="1" ref="AA56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB56" s="3" t="str">
+      <c r="AB56" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10799,31 +10808,31 @@
       </c>
       <c r="H57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K57" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M57" s="1" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10831,7 +10840,7 @@
       </c>
       <c r="P57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q57" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -10839,32 +10848,32 @@
       </c>
       <c r="R57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S57" s="1" cm="1">
         <f t="array" aca="1" ref="S57" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="T57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W57">
         <v>55</v>
       </c>
-      <c r="X57" s="3" t="str" cm="1">
+      <c r="X57" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X57" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y57" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y57" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y57" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z57" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z57" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
@@ -10872,7 +10881,7 @@
         <f t="array" aca="1" ref="AA57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB57" s="3" t="str">
+      <c r="AB57" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10883,15 +10892,15 @@
       </c>
       <c r="H58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K58" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10899,39 +10908,39 @@
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M58" s="1" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q58" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S58" s="1" cm="1">
         <f t="array" aca="1" ref="S58" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="T58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10940,23 +10949,23 @@
       <c r="W58">
         <v>56</v>
       </c>
-      <c r="X58" s="3" t="str" cm="1">
+      <c r="X58" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X58" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y58" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y58" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y58" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z58" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z58" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA58" t="str" cm="1">
         <f t="array" aca="1" ref="AA58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB58" s="3" t="str">
+      <c r="AB58" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -10967,15 +10976,15 @@
       </c>
       <c r="H59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K59" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10987,60 +10996,60 @@
       </c>
       <c r="M59" s="1" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q59" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S59" s="1" cm="1">
         <f t="array" aca="1" ref="S59" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W59">
         <v>57</v>
       </c>
-      <c r="X59" s="3" t="str" cm="1">
+      <c r="X59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X59" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y59" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y59" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z59" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z59" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA59" t="str" cm="1">
         <f t="array" aca="1" ref="AA59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB59" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB59" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11051,7 +11060,7 @@
       </c>
       <c r="H60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11059,23 +11068,23 @@
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K60" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" s="1" cm="1">
         <f t="array" aca="1" ref="M60" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O60" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11083,19 +11092,19 @@
       </c>
       <c r="P60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q60" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" s="1" cm="1">
         <f t="array" aca="1" ref="S60" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="T60" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -11108,23 +11117,23 @@
       <c r="W60">
         <v>58</v>
       </c>
-      <c r="X60" s="3" t="str" cm="1">
+      <c r="X60" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X60" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y60" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y60" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y60" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z60" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z60" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
       <c r="AA60" t="str" cm="1">
         <f t="array" aca="1" ref="AA60" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB60" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB60" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11135,47 +11144,47 @@
       </c>
       <c r="H61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K61" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M61" s="1" cm="1">
         <f t="array" aca="1" ref="M61" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q61" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S61" s="1" cm="1">
         <f t="array" aca="1" ref="S61" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
@@ -11183,7 +11192,7 @@
       </c>
       <c r="T61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11192,23 +11201,23 @@
       <c r="W61">
         <v>59</v>
       </c>
-      <c r="X61" s="3" t="str" cm="1">
+      <c r="X61" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X61" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>3,5 ZiWg klein</v>
       </c>
-      <c r="Y61" s="3" t="str" cm="1">
+      <c r="Y61" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y61" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Riegel</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="Z61" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
       <c r="AA61" t="str" cm="1">
         <f t="array" aca="1" ref="AA61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB61" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB61" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11219,7 +11228,7 @@
       </c>
       <c r="H62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I62" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11227,72 +11236,72 @@
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K62" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M62" s="1" cm="1">
         <f t="array" aca="1" ref="M62" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q62" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S62" s="1" cm="1">
         <f t="array" aca="1" ref="S62" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W62">
         <v>60</v>
       </c>
-      <c r="X62" s="3" t="str" cm="1">
+      <c r="X62" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X62" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y62" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y62" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y62" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z62" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z62" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA62" t="str" cm="1">
         <f t="array" aca="1" ref="AA62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB62" s="3" t="str">
+      <c r="AB62" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11303,19 +11312,19 @@
       </c>
       <c r="H63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I63" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" ref="J63:J69" ca="1" si="6">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K63" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ref="L63:L69" ca="1" si="7">RANDBETWEEN(0,10)</f>
@@ -11323,19 +11332,19 @@
       </c>
       <c r="M63" s="1" cm="1">
         <f t="array" aca="1" ref="M63" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ref="N63:N69" ca="1" si="8">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ref="P63:P69" ca="1" si="9">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q63" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11343,11 +11352,11 @@
       </c>
       <c r="R63" s="1">
         <f t="shared" ref="R63:R69" ca="1" si="10">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S63" s="1" cm="1">
         <f t="array" aca="1" ref="S63" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ref="T63:T69" ca="1" si="11">RANDBETWEEN(0,10)</f>
@@ -11355,28 +11364,28 @@
       </c>
       <c r="U63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W63">
         <v>61</v>
       </c>
-      <c r="X63" s="3" t="str" cm="1">
+      <c r="X63" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X63" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y63" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y63" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y63" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z63" s="3">
+      <c r="Z63" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
       <c r="AA63" t="str" cm="1">
         <f t="array" aca="1" ref="AA63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB63" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB63" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11387,15 +11396,15 @@
       </c>
       <c r="H64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I64" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K64" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11403,15 +11412,15 @@
       </c>
       <c r="L64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M64" s="1" cm="1">
         <f t="array" aca="1" ref="M64" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11419,23 +11428,23 @@
       </c>
       <c r="P64" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q64" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S64" s="1" cm="1">
         <f t="array" aca="1" ref="S64" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11444,23 +11453,23 @@
       <c r="W64">
         <v>62</v>
       </c>
-      <c r="X64" s="3" t="str" cm="1">
+      <c r="X64" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X64" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y64" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y64" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y64" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Riegel</v>
       </c>
-      <c r="Z64" s="3">
+      <c r="Z64" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>1</v>
       </c>
       <c r="AA64" t="str" cm="1">
         <f t="array" aca="1" ref="AA64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB64" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB64" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11471,15 +11480,15 @@
       </c>
       <c r="H65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I65" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K65" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11487,15 +11496,15 @@
       </c>
       <c r="L65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M65" s="1" cm="1">
         <f t="array" aca="1" ref="M65" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O65" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11503,19 +11512,19 @@
       </c>
       <c r="P65" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q65" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R65" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S65" s="1" cm="1">
         <f t="array" aca="1" ref="S65" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -11528,23 +11537,23 @@
       <c r="W65">
         <v>63</v>
       </c>
-      <c r="X65" s="3" t="str" cm="1">
+      <c r="X65" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X65" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y65" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y65" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y65" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Riegel</v>
       </c>
-      <c r="Z65" s="3">
+      <c r="Z65" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA65" t="str" cm="1">
         <f t="array" aca="1" ref="AA65" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB65" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB65" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11555,11 +11564,11 @@
       </c>
       <c r="H66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I66" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -11567,27 +11576,27 @@
       </c>
       <c r="K66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K66" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M66" s="1" cm="1">
         <f t="array" aca="1" ref="M66" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q66" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11595,15 +11604,15 @@
       </c>
       <c r="R66" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S66" s="1" cm="1">
         <f t="array" aca="1" ref="S66" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11612,23 +11621,23 @@
       <c r="W66">
         <v>64</v>
       </c>
-      <c r="X66" s="3" t="str" cm="1">
+      <c r="X66" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X66" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y66" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y66" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y66" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA66" t="str" cm="1">
         <f t="array" aca="1" ref="AA66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB66" s="3" t="str">
+      <c r="AB66" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11639,7 +11648,7 @@
       </c>
       <c r="H67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11647,7 +11656,7 @@
       </c>
       <c r="J67" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K67" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11655,35 +11664,35 @@
       </c>
       <c r="L67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M67" s="1" cm="1">
         <f t="array" aca="1" ref="M67" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q67" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S67" s="1" cm="1">
         <f t="array" aca="1" ref="S67" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -11696,23 +11705,23 @@
       <c r="W67">
         <v>65</v>
       </c>
-      <c r="X67" s="3" t="str" cm="1">
+      <c r="X67" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X67" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>5,5 ZiWg</v>
       </c>
-      <c r="Y67" s="3" t="str" cm="1">
+      <c r="Y67" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y67" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z67" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z67" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA67" t="str" cm="1">
         <f t="array" aca="1" ref="AA67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB67" s="3" t="str">
+      <c r="AB67" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11723,7 +11732,7 @@
       </c>
       <c r="H68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11731,27 +11740,27 @@
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K68" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M68" s="1" cm="1">
         <f t="array" aca="1" ref="M68" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P68" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -11759,44 +11768,44 @@
       </c>
       <c r="Q68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q68" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S68" s="1" cm="1">
         <f t="array" aca="1" ref="S68" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W68">
         <v>66</v>
       </c>
-      <c r="X68" s="3" t="str" cm="1">
+      <c r="X68" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X68" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y68" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y68" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y68" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z68" s="3">
+      <c r="Z68" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA68" t="str" cm="1">
         <f t="array" aca="1" ref="AA68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB68" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB68" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11807,39 +11816,39 @@
       </c>
       <c r="H69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K69" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M69" s="1" cm="1">
         <f t="array" aca="1" ref="M69" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q69" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11851,36 +11860,36 @@
       </c>
       <c r="S69" s="1" cm="1">
         <f t="array" aca="1" ref="S69" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="T69" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W69">
         <v>67</v>
       </c>
-      <c r="X69" s="3" t="str" cm="1">
+      <c r="X69" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X69" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>2,5 ZiWg</v>
       </c>
-      <c r="Y69" s="3" t="str" cm="1">
+      <c r="Y69" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y69" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z69" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z69" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA69" t="str" cm="1">
         <f t="array" aca="1" ref="AA69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB69" s="3" t="str">
+      <c r="AB69" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11889,23 +11898,23 @@
       <c r="W70">
         <v>68</v>
       </c>
-      <c r="X70" s="3" t="str" cm="1">
+      <c r="X70" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X70" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y70" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y70" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y70" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z70" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z70" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA70" t="str" cm="1">
         <f t="array" aca="1" ref="AA70" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB70" s="3" t="str">
+      <c r="AB70" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11914,23 +11923,23 @@
       <c r="W71">
         <v>69</v>
       </c>
-      <c r="X71" s="3" t="str" cm="1">
+      <c r="X71" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X71" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>3,5 ZiWg</v>
       </c>
-      <c r="Y71" s="3" t="str" cm="1">
+      <c r="Y71" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y71" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z71" s="3">
+      <c r="Z71" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA71" t="str" cm="1">
         <f t="array" aca="1" ref="AA71" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB71" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB71" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11939,23 +11948,23 @@
       <c r="W72">
         <v>70</v>
       </c>
-      <c r="X72" s="3" t="str" cm="1">
+      <c r="X72" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X72" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y72" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y72" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y72" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z72" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z72" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA72" t="str" cm="1">
         <f t="array" aca="1" ref="AA72" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB72" s="3" t="str">
+      <c r="AB72" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11964,23 +11973,23 @@
       <c r="W73">
         <v>71</v>
       </c>
-      <c r="X73" s="3" t="str" cm="1">
+      <c r="X73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X73" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y73" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y73" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z73" s="3">
+      <c r="Z73" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA73" t="str" cm="1">
         <f t="array" aca="1" ref="AA73" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB73" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB73" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -11989,15 +11998,15 @@
       <c r="W74">
         <v>72</v>
       </c>
-      <c r="X74" s="3" t="str" cm="1">
+      <c r="X74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X74" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y74" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y74" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z74" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z74" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>2</v>
       </c>
@@ -12005,7 +12014,7 @@
         <f t="array" aca="1" ref="AA74" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB74" s="3" t="str">
+      <c r="AB74" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12014,15 +12023,15 @@
       <c r="W75">
         <v>73</v>
       </c>
-      <c r="X75" s="3" t="str" cm="1">
+      <c r="X75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X75" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>3,5 ZiWg</v>
       </c>
-      <c r="Y75" s="3" t="str" cm="1">
+      <c r="Y75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y75" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Winkel</v>
       </c>
-      <c r="Z75" s="3">
+      <c r="Z75" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>1</v>
       </c>
@@ -12030,7 +12039,7 @@
         <f t="array" aca="1" ref="AA75" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB75" s="3" t="str">
+      <c r="AB75" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12039,23 +12048,23 @@
       <c r="W76">
         <v>74</v>
       </c>
-      <c r="X76" s="3" t="str" cm="1">
+      <c r="X76" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X76" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>1,5 ZiWg</v>
       </c>
-      <c r="Y76" s="3" t="str" cm="1">
+      <c r="Y76" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y76" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Punkt</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA76" t="str" cm="1">
         <f t="array" aca="1" ref="AA76" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB76" s="3" t="str">
+      <c r="AB76" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12064,23 +12073,23 @@
       <c r="W77">
         <v>75</v>
       </c>
-      <c r="X77" s="3" t="str" cm="1">
+      <c r="X77" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X77" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y77" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y77" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y77" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z77" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z77" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA77" t="str" cm="1">
         <f t="array" aca="1" ref="AA77" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB77" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB77" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12089,23 +12098,23 @@
       <c r="W78">
         <v>76</v>
       </c>
-      <c r="X78" s="3" t="str" cm="1">
+      <c r="X78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X78" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y78" s="3" t="str" cm="1">
+        <v>3,5 ZiWg klein</v>
+      </c>
+      <c r="Y78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y78" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z78" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z78" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA78" t="str" cm="1">
         <f t="array" aca="1" ref="AA78" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB78" s="3" t="str">
+      <c r="AB78" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12114,23 +12123,23 @@
       <c r="W79">
         <v>77</v>
       </c>
-      <c r="X79" s="3" t="str" cm="1">
+      <c r="X79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X79" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
-      </c>
-      <c r="Y79" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y79" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
         <v>Riegel</v>
       </c>
-      <c r="Z79" s="3">
+      <c r="Z79" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>3</v>
       </c>
       <c r="AA79" t="str" cm="1">
         <f t="array" aca="1" ref="AA79" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB79" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB79" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12139,23 +12148,23 @@
       <c r="W80">
         <v>78</v>
       </c>
-      <c r="X80" s="3" t="str" cm="1">
+      <c r="X80" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X80" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
-      </c>
-      <c r="Y80" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y80" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y80" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z80" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z80" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA80" t="str" cm="1">
         <f t="array" aca="1" ref="AA80" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB80" s="3" t="str">
+      <c r="AB80" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12164,23 +12173,23 @@
       <c r="W81">
         <v>79</v>
       </c>
-      <c r="X81" s="3" t="str" cm="1">
+      <c r="X81" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X81" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y81" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y81" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y81" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z81" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z81" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA81" t="str" cm="1">
         <f t="array" aca="1" ref="AA81" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB81" s="3" t="str">
+      <c r="AB81" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12189,23 +12198,23 @@
       <c r="W82">
         <v>80</v>
       </c>
-      <c r="X82" s="3" t="str" cm="1">
+      <c r="X82" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X82" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
-      </c>
-      <c r="Y82" s="3" t="str" cm="1">
+        <v>5,5 ZiWg</v>
+      </c>
+      <c r="Y82" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y82" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z82" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z82" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
         <v>1</v>
       </c>
       <c r="AA82" t="str" cm="1">
         <f t="array" aca="1" ref="AA82" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB82" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB82" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12214,23 +12223,23 @@
       <c r="W83">
         <v>81</v>
       </c>
-      <c r="X83" s="3" t="str" cm="1">
+      <c r="X83" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X83" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y83" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y83" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y83" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z83" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z83" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA83" t="str" cm="1">
         <f t="array" aca="1" ref="AA83" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB83" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB83" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12239,23 +12248,23 @@
       <c r="W84">
         <v>82</v>
       </c>
-      <c r="X84" s="3" t="str" cm="1">
+      <c r="X84" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X84" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y84" s="3" t="str" cm="1">
+        <v>2,5 ZiWg</v>
+      </c>
+      <c r="Y84" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y84" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z84" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z84" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA84" t="str" cm="1">
         <f t="array" aca="1" ref="AA84" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB84" s="3" t="str">
+      <c r="AB84" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12264,23 +12273,23 @@
       <c r="W85">
         <v>83</v>
       </c>
-      <c r="X85" s="3" t="str" cm="1">
+      <c r="X85" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X85" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>4,5 ZiWg</v>
       </c>
-      <c r="Y85" s="3" t="str" cm="1">
+      <c r="Y85" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y85" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z85" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z85" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA85" t="str" cm="1">
         <f t="array" aca="1" ref="AA85" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Ja</v>
       </c>
-      <c r="AB85" s="3" t="str">
+      <c r="AB85" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12289,23 +12298,23 @@
       <c r="W86">
         <v>84</v>
       </c>
-      <c r="X86" s="3" t="str" cm="1">
+      <c r="X86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X86" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>4,5 ZiWg</v>
       </c>
-      <c r="Y86" s="3" t="str" cm="1">
+      <c r="Y86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y86" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z86" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z86" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA86" t="str" cm="1">
         <f t="array" aca="1" ref="AA86" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
         <v>Nein</v>
       </c>
-      <c r="AB86" s="3" t="str">
+      <c r="AB86" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12314,23 +12323,23 @@
       <c r="W87">
         <v>85</v>
       </c>
-      <c r="X87" s="3" t="str" cm="1">
+      <c r="X87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X87" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>3,5 ZiWg</v>
       </c>
-      <c r="Y87" s="3" t="str" cm="1">
+      <c r="Y87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y87" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z87" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z87" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA87" t="str" cm="1">
         <f t="array" aca="1" ref="AA87" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB87" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB87" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12339,23 +12348,23 @@
       <c r="W88">
         <v>86</v>
       </c>
-      <c r="X88" s="3" t="str" cm="1">
+      <c r="X88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X88" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
-      </c>
-      <c r="Y88" s="3" t="str" cm="1">
+        <v>4,5 ZiWg</v>
+      </c>
+      <c r="Y88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y88" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
-      </c>
-      <c r="Z88" s="3">
+        <v>Punkt</v>
+      </c>
+      <c r="Z88" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA88" t="str" cm="1">
         <f t="array" aca="1" ref="AA88" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB88" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB88" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12364,23 +12373,23 @@
       <c r="W89">
         <v>87</v>
       </c>
-      <c r="X89" s="3" t="str" cm="1">
+      <c r="X89" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X89" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
-      </c>
-      <c r="Y89" s="3" t="str" cm="1">
+        <v>3,5 ZiWg</v>
+      </c>
+      <c r="Y89" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y89" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
-      </c>
-      <c r="Z89" s="3">
+        <v>Riegel</v>
+      </c>
+      <c r="Z89" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA89" t="str" cm="1">
         <f t="array" aca="1" ref="AA89" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
-      </c>
-      <c r="AB89" s="3" t="str">
+        <v>Ja</v>
+      </c>
+      <c r="AB89" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
@@ -12389,31 +12398,31 @@
       <c r="W90">
         <v>88</v>
       </c>
-      <c r="X90" s="3" t="str" cm="1">
+      <c r="X90" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X90" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
         <v>4,5 ZiWg</v>
       </c>
-      <c r="Y90" s="3" t="str" cm="1">
+      <c r="Y90" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y90" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
-      </c>
-      <c r="Z90" s="3">
+        <v>Winkel</v>
+      </c>
+      <c r="Z90" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA90" t="str" cm="1">
         <f t="array" aca="1" ref="AA90" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
-      </c>
-      <c r="AB90" s="3" t="str">
+        <v>Nein</v>
+      </c>
+      <c r="AB90" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
         <v>Nein</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="W1:AD1"/>
+    <mergeCell ref="G1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Haushaltsinteressen.xlsx
+++ b/Haushaltsinteressen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeOnD\projects\gw-flat-distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BEABB-50CC-4D78-8D72-F002A37CB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD176CBB-1F80-4A88-A980-514E310BB6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{575969AB-465A-427A-BC78-B7EE1C5F931F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{575969AB-465A-427A-BC78-B7EE1C5F931F}"/>
   </bookViews>
   <sheets>
     <sheet name="Haushaltswünsche" sheetId="1" r:id="rId1"/>
@@ -853,9 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93467E3-3349-4013-94D8-17281BFB96B0}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6039,7 +6037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A377F6-BF96-4CE6-B436-5EC800737A20}">
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -6188,7 +6186,7 @@
       </c>
       <c r="H3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6200,39 +6198,39 @@
       </c>
       <c r="K3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L62" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N62" ca="1" si="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P62" ca="1" si="2">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R62" ca="1" si="3">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" ref="T3:T62" ca="1" si="4">RANDBETWEEN(0,10)</f>
@@ -6255,11 +6253,11 @@
       </c>
       <c r="Z3" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="str" cm="1">
         <f t="array" aca="1" ref="AA3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB3" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6278,15 +6276,15 @@
       </c>
       <c r="H4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J62" ca="1" si="5">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6294,23 +6292,23 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -6322,11 +6320,11 @@
       </c>
       <c r="S4" s="1" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6337,11 +6335,11 @@
       </c>
       <c r="X4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X4" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y4" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z4" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -6349,7 +6347,7 @@
       </c>
       <c r="AA4" t="str" cm="1">
         <f t="array" aca="1" ref="AA4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB4" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6365,11 +6363,11 @@
       </c>
       <c r="H5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -6381,39 +6379,39 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6424,11 +6422,11 @@
       </c>
       <c r="X5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y5" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z5" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -6449,15 +6447,15 @@
       </c>
       <c r="H6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6465,15 +6463,15 @@
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6481,46 +6479,46 @@
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S6" s="1" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X6" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y6" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z6" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="str" cm="1">
         <f t="array" aca="1" ref="AA6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB6" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6543,11 +6541,11 @@
       </c>
       <c r="I7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6555,11 +6553,11 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -6571,42 +6569,42 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S7" s="1" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X7" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y7" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z7" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="str" cm="1">
         <f t="array" aca="1" ref="AA7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6629,15 +6627,15 @@
       </c>
       <c r="H8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6645,15 +6643,15 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M8" s="1" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6661,19 +6659,19 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6688,15 +6686,15 @@
       </c>
       <c r="X8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X8" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y8" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z8" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="str" cm="1">
         <f t="array" aca="1" ref="AA8" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6719,15 +6717,15 @@
       </c>
       <c r="H9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6735,23 +6733,23 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M9" s="1" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -6759,30 +6757,30 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W9">
         <v>7</v>
       </c>
       <c r="X9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X9" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y9" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z9" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -6790,7 +6788,7 @@
       </c>
       <c r="AA9" t="str" cm="1">
         <f t="array" aca="1" ref="AA9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB9" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6806,7 +6804,7 @@
       </c>
       <c r="H10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6814,7 +6812,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6822,15 +6820,15 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M10" s="1" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6838,23 +6836,23 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S10" s="1" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6865,19 +6863,19 @@
       </c>
       <c r="X10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X10" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y10" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z10" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="str" cm="1">
         <f t="array" aca="1" ref="AA10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB10" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6893,7 +6891,7 @@
       </c>
       <c r="H11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6901,23 +6899,23 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6925,11 +6923,11 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -6937,26 +6935,26 @@
       </c>
       <c r="S11" s="1" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W11">
         <v>9</v>
       </c>
       <c r="X11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y11" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z11" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -6964,7 +6962,7 @@
       </c>
       <c r="AA11" t="str" cm="1">
         <f t="array" aca="1" ref="AA11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB11" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6988,7 +6986,7 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6996,15 +6994,15 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12" s="1" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7012,23 +7010,23 @@
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S12" s="1" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U12" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7039,7 +7037,7 @@
       </c>
       <c r="X12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X12" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y12" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7047,11 +7045,11 @@
       </c>
       <c r="Z12" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="str" cm="1">
         <f t="array" aca="1" ref="AA12" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB12" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7067,11 +7065,11 @@
       </c>
       <c r="H13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -7087,11 +7085,11 @@
       </c>
       <c r="M13" s="1" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7099,23 +7097,23 @@
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" s="1" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7126,7 +7124,7 @@
       </c>
       <c r="X13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X13" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y13" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7134,7 +7132,7 @@
       </c>
       <c r="Z13" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="str" cm="1">
         <f t="array" aca="1" ref="AA13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7154,55 +7152,55 @@
       </c>
       <c r="H14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" s="1" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7213,11 +7211,11 @@
       </c>
       <c r="X14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X14" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y14" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z14" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -7244,27 +7242,27 @@
       </c>
       <c r="H15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" s="1" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -7272,27 +7270,27 @@
       </c>
       <c r="O15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7303,11 +7301,11 @@
       </c>
       <c r="X15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X15" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y15" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z15" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -7334,31 +7332,31 @@
       </c>
       <c r="H16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M16" s="1" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7370,19 +7368,19 @@
       </c>
       <c r="Q16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S16" s="1" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7393,7 +7391,7 @@
       </c>
       <c r="X16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X16" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y16" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7405,7 +7403,7 @@
       </c>
       <c r="AA16" t="str" cm="1">
         <f t="array" aca="1" ref="AA16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB16" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7424,15 +7422,15 @@
       </c>
       <c r="H17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7440,39 +7438,39 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7491,11 +7489,11 @@
       </c>
       <c r="Z17" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="str" cm="1">
         <f t="array" aca="1" ref="AA17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB17" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7514,15 +7512,15 @@
       </c>
       <c r="H18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7534,58 +7532,58 @@
       </c>
       <c r="M18" s="1" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S18" s="1" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W18">
         <v>16</v>
       </c>
       <c r="X18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X18" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y18" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z18" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="str" cm="1">
         <f t="array" aca="1" ref="AA18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB18" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7608,51 +7606,51 @@
       </c>
       <c r="I19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="1" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7663,19 +7661,19 @@
       </c>
       <c r="X19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X19" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y19" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z19" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA19" t="str" cm="1">
         <f t="array" aca="1" ref="AA19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB19" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7694,7 +7692,7 @@
       </c>
       <c r="H20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7702,7 +7700,7 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7710,50 +7708,50 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" s="1" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S20" s="1" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W20">
         <v>18</v>
       </c>
       <c r="X20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X20" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y20" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7761,11 +7759,11 @@
       </c>
       <c r="Z20" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="str" cm="1">
         <f t="array" aca="1" ref="AA20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB20" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7784,31 +7782,31 @@
       </c>
       <c r="H21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M21" s="1" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7816,23 +7814,23 @@
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7843,7 +7841,7 @@
       </c>
       <c r="X21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X21" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y21" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7851,7 +7849,7 @@
       </c>
       <c r="Z21" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="str" cm="1">
         <f t="array" aca="1" ref="AA21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7868,55 +7866,55 @@
       </c>
       <c r="H22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S22" s="1" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7931,15 +7929,15 @@
       </c>
       <c r="Y22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y22" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z22" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="str" cm="1">
         <f t="array" aca="1" ref="AA22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB22" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7952,15 +7950,15 @@
       </c>
       <c r="H23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7968,15 +7966,15 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M23" s="1" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7988,19 +7986,19 @@
       </c>
       <c r="Q23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S23" s="1" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8015,15 +8013,15 @@
       </c>
       <c r="Y23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y23" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z23" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="str" cm="1">
         <f t="array" aca="1" ref="AA23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB23" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8036,15 +8034,15 @@
       </c>
       <c r="H24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8056,31 +8054,31 @@
       </c>
       <c r="M24" s="1" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S24" s="1" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -8095,15 +8093,15 @@
       </c>
       <c r="X24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X24" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y24" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z24" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="str" cm="1">
         <f t="array" aca="1" ref="AA24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8124,11 +8122,11 @@
       </c>
       <c r="I25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8136,50 +8134,50 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M25" s="1" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W25">
         <v>23</v>
       </c>
       <c r="X25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X25" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y25" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8187,15 +8185,15 @@
       </c>
       <c r="Z25" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="str" cm="1">
         <f t="array" aca="1" ref="AA25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB25" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
@@ -8212,7 +8210,7 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8220,15 +8218,15 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8236,7 +8234,7 @@
       </c>
       <c r="P26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -8248,11 +8246,11 @@
       </c>
       <c r="S26" s="1" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8267,7 +8265,7 @@
       </c>
       <c r="Y26" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y26" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z26" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -8288,7 +8286,7 @@
       </c>
       <c r="H27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8296,23 +8294,23 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M27" s="1" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8320,23 +8318,23 @@
       </c>
       <c r="P27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S27" s="1" cm="1">
         <f t="array" aca="1" ref="S27" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8347,7 +8345,7 @@
       </c>
       <c r="X27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X27" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y27" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8359,7 +8357,7 @@
       </c>
       <c r="AA27" t="str" cm="1">
         <f t="array" aca="1" ref="AA27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB27" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8388,23 +8386,23 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M28" s="1" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -8412,26 +8410,26 @@
       </c>
       <c r="R28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S28" s="1" cm="1">
         <f t="array" aca="1" ref="S28" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U28" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W28">
         <v>26</v>
       </c>
       <c r="X28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X28" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y28" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8439,7 +8437,7 @@
       </c>
       <c r="Z28" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="str" cm="1">
         <f t="array" aca="1" ref="AA28" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8456,7 +8454,7 @@
       </c>
       <c r="H29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8468,7 +8466,7 @@
       </c>
       <c r="K29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -8476,35 +8474,35 @@
       </c>
       <c r="M29" s="1" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S29" s="1" cm="1">
         <f t="array" aca="1" ref="S29" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8523,7 +8521,7 @@
       </c>
       <c r="Z29" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA29" t="str" cm="1">
         <f t="array" aca="1" ref="AA29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8540,15 +8538,15 @@
       </c>
       <c r="H30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8556,15 +8554,15 @@
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8572,7 +8570,7 @@
       </c>
       <c r="P30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -8580,11 +8578,11 @@
       </c>
       <c r="R30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" cm="1">
         <f t="array" aca="1" ref="S30" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -8592,22 +8590,22 @@
       </c>
       <c r="U30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W30">
         <v>28</v>
       </c>
       <c r="X30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X30" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y30" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z30" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="str" cm="1">
         <f t="array" aca="1" ref="AA30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8624,39 +8622,39 @@
       </c>
       <c r="H31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M31" s="1" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -8664,26 +8662,26 @@
       </c>
       <c r="R31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S31" s="1" cm="1">
         <f t="array" aca="1" ref="S31" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W31">
         <v>29</v>
       </c>
       <c r="X31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X31" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y31" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8691,7 +8689,7 @@
       </c>
       <c r="Z31" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="str" cm="1">
         <f t="array" aca="1" ref="AA31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8712,70 +8710,70 @@
       </c>
       <c r="I32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W32">
         <v>30</v>
       </c>
       <c r="X32" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X32" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y32" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y32" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z32" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="str" cm="1">
         <f t="array" aca="1" ref="AA32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8792,11 +8790,11 @@
       </c>
       <c r="H33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -8808,58 +8806,58 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S33" s="1" cm="1">
         <f t="array" aca="1" ref="S33" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W33">
         <v>31</v>
       </c>
       <c r="X33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X33" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y33" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z33" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA33" t="str" cm="1">
         <f t="array" aca="1" ref="AA33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8884,7 +8882,7 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8892,43 +8890,43 @@
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M34" s="1" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S34" s="1" cm="1">
         <f t="array" aca="1" ref="S34" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W34">
         <v>32</v>
@@ -8943,11 +8941,11 @@
       </c>
       <c r="Z34" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA34" t="str" cm="1">
         <f t="array" aca="1" ref="AA34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB34" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8960,74 +8958,74 @@
       </c>
       <c r="H35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M35" s="1" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S35" s="1" cm="1">
         <f t="array" aca="1" ref="S35" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W35">
         <v>33</v>
       </c>
       <c r="X35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X35" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y35" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z35" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA35" t="str" cm="1">
         <f t="array" aca="1" ref="AA35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9044,11 +9042,11 @@
       </c>
       <c r="H36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -9056,23 +9054,23 @@
       </c>
       <c r="K36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M36" s="1" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -9080,38 +9078,38 @@
       </c>
       <c r="Q36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S36" s="1" cm="1">
         <f t="array" aca="1" ref="S36" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W36">
         <v>34</v>
       </c>
       <c r="X36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X36" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y36" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z36" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA36" t="str" cm="1">
         <f t="array" aca="1" ref="AA36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9128,7 +9126,7 @@
       </c>
       <c r="H37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9136,11 +9134,11 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -9148,15 +9146,15 @@
       </c>
       <c r="M37" s="1" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -9164,23 +9162,23 @@
       </c>
       <c r="Q37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S37" s="1" cm="1">
         <f t="array" aca="1" ref="S37" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W37">
         <v>35</v>
@@ -9191,15 +9189,15 @@
       </c>
       <c r="Y37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y37" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z37" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA37" t="str" cm="1">
         <f t="array" aca="1" ref="AA37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB37" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -9220,47 +9218,47 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M38" s="1" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S38" s="1" cm="1">
         <f t="array" aca="1" ref="S38" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9271,15 +9269,15 @@
       </c>
       <c r="X38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X38" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y38" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z38" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA38" t="str" cm="1">
         <f t="array" aca="1" ref="AA38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9304,7 +9302,7 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9312,39 +9310,39 @@
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M39" s="1" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S39" s="1" cm="1">
         <f t="array" aca="1" ref="S39" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9355,15 +9353,15 @@
       </c>
       <c r="X39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X39" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y39" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z39" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA39" t="str" cm="1">
         <f t="array" aca="1" ref="AA39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9380,15 +9378,15 @@
       </c>
       <c r="H40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9396,15 +9394,15 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M40" s="1" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9412,7 +9410,7 @@
       </c>
       <c r="P40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9420,11 +9418,11 @@
       </c>
       <c r="R40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S40" s="1" cm="1">
         <f t="array" aca="1" ref="S40" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T40" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -9432,14 +9430,14 @@
       </c>
       <c r="U40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W40">
         <v>38</v>
       </c>
       <c r="X40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X40" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y40" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9447,7 +9445,7 @@
       </c>
       <c r="Z40" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA40" t="str" cm="1">
         <f t="array" aca="1" ref="AA40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9464,15 +9462,15 @@
       </c>
       <c r="H41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9480,15 +9478,15 @@
       </c>
       <c r="L41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9496,38 +9494,38 @@
       </c>
       <c r="P41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S41" s="1" cm="1">
         <f t="array" aca="1" ref="S41" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="T41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U41" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W41">
         <v>39</v>
       </c>
       <c r="X41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X41" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y41" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z41" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -9535,7 +9533,7 @@
       </c>
       <c r="AA41" t="str" cm="1">
         <f t="array" aca="1" ref="AA41" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB41" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -9552,11 +9550,11 @@
       </c>
       <c r="I42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9564,39 +9562,39 @@
       </c>
       <c r="L42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="1" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q42" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S42" s="1" cm="1">
         <f t="array" aca="1" ref="S42" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="T42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9607,11 +9605,11 @@
       </c>
       <c r="X42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X42" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y42" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z42" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -9619,7 +9617,7 @@
       </c>
       <c r="AA42" t="str" cm="1">
         <f t="array" aca="1" ref="AA42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB42" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -9632,7 +9630,7 @@
       </c>
       <c r="H43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9640,7 +9638,7 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9648,15 +9646,15 @@
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9664,7 +9662,7 @@
       </c>
       <c r="P43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q43" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9672,19 +9670,19 @@
       </c>
       <c r="R43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" s="1" cm="1">
         <f t="array" aca="1" ref="S43" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W43">
         <v>41</v>
@@ -9695,11 +9693,11 @@
       </c>
       <c r="Y43" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y43" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z43" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA43" t="str" cm="1">
         <f t="array" aca="1" ref="AA43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9716,55 +9714,55 @@
       </c>
       <c r="H44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M44" s="1" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q44" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" s="1" cm="1">
         <f t="array" aca="1" ref="S44" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9775,7 +9773,7 @@
       </c>
       <c r="X44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X44" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y44" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9783,7 +9781,7 @@
       </c>
       <c r="Z44" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="str" cm="1">
         <f t="array" aca="1" ref="AA44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9808,31 +9806,31 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M45" s="1" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q45" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9840,11 +9838,11 @@
       </c>
       <c r="R45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S45" s="1" cm="1">
         <f t="array" aca="1" ref="S45" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -9859,7 +9857,7 @@
       </c>
       <c r="X45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X45" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y45" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9884,15 +9882,15 @@
       </c>
       <c r="H46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9900,58 +9898,58 @@
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M46" s="1" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q46" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S46" s="1" cm="1">
         <f t="array" aca="1" ref="S46" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W46">
         <v>44</v>
       </c>
       <c r="X46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X46" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y46" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z46" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA46" t="str" cm="1">
         <f t="array" aca="1" ref="AA46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9968,15 +9966,15 @@
       </c>
       <c r="H47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9984,15 +9982,15 @@
       </c>
       <c r="L47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M47" s="1" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10000,23 +9998,23 @@
       </c>
       <c r="P47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q47" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S47" s="1" cm="1">
         <f t="array" aca="1" ref="S47" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10031,11 +10029,11 @@
       </c>
       <c r="Y47" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y47" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z47" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA47" t="str" cm="1">
         <f t="array" aca="1" ref="AA47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10056,62 +10054,62 @@
       </c>
       <c r="I48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K48" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M48" s="1" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q48" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S48" s="1" cm="1">
         <f t="array" aca="1" ref="S48" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U48" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W48">
         <v>46</v>
       </c>
       <c r="X48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X48" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y48" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10119,7 +10117,7 @@
       </c>
       <c r="Z48" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA48" t="str" cm="1">
         <f t="array" aca="1" ref="AA48" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10136,7 +10134,7 @@
       </c>
       <c r="H49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10144,23 +10142,23 @@
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K49" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M49" s="1" cm="1">
         <f t="array" aca="1" ref="M49" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10168,46 +10166,46 @@
       </c>
       <c r="P49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q49" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S49" s="1" cm="1">
         <f t="array" aca="1" ref="S49" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W49">
         <v>47</v>
       </c>
       <c r="X49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X49" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y49" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z49" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA49" t="str" cm="1">
         <f t="array" aca="1" ref="AA49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB49" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10220,7 +10218,7 @@
       </c>
       <c r="H50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10228,7 +10226,7 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K50" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10236,23 +10234,23 @@
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M50" s="1" cm="1">
         <f t="array" aca="1" ref="M50" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q50" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -10260,26 +10258,26 @@
       </c>
       <c r="R50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S50" s="1" cm="1">
         <f t="array" aca="1" ref="S50" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="T50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W50">
         <v>48</v>
       </c>
       <c r="X50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X50" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y50" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10287,11 +10285,11 @@
       </c>
       <c r="Z50" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA50" t="str" cm="1">
         <f t="array" aca="1" ref="AA50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB50" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10304,11 +10302,11 @@
       </c>
       <c r="H51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I51" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -10316,66 +10314,66 @@
       </c>
       <c r="K51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K51" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M51" s="1" cm="1">
         <f t="array" aca="1" ref="M51" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q51" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S51" s="1" cm="1">
         <f t="array" aca="1" ref="S51" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="T51" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W51">
         <v>49</v>
       </c>
       <c r="X51" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X51" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y51" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y51" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z51" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA51" t="str" cm="1">
         <f t="array" aca="1" ref="AA51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB51" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10388,7 +10386,7 @@
       </c>
       <c r="H52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I52" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10396,23 +10394,23 @@
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K52" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M52" s="1" cm="1">
         <f t="array" aca="1" ref="M52" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10420,23 +10418,23 @@
       </c>
       <c r="P52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q52" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S52" s="1" cm="1">
         <f t="array" aca="1" ref="S52" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10447,15 +10445,15 @@
       </c>
       <c r="X52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X52" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y52" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z52" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA52" t="str" cm="1">
         <f t="array" aca="1" ref="AA52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10472,7 +10470,7 @@
       </c>
       <c r="H53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I53" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10480,7 +10478,7 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K53" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10488,62 +10486,62 @@
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M53" s="1" cm="1">
         <f t="array" aca="1" ref="M53" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q53" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S53" s="1" cm="1">
         <f t="array" aca="1" ref="S53" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W53">
         <v>51</v>
       </c>
       <c r="X53" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X53" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y53" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y53" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z53" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="str" cm="1">
         <f t="array" aca="1" ref="AA53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB53" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10556,15 +10554,15 @@
       </c>
       <c r="H54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K54" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10572,27 +10570,27 @@
       </c>
       <c r="L54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M54" s="1" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q54" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -10600,11 +10598,11 @@
       </c>
       <c r="S54" s="1" cm="1">
         <f t="array" aca="1" ref="S54" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10615,15 +10613,15 @@
       </c>
       <c r="X54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X54" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y54" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z54" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA54" t="str" cm="1">
         <f t="array" aca="1" ref="AA54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10640,74 +10638,74 @@
       </c>
       <c r="H55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K55" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M55" s="1" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q55" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S55" s="1" cm="1">
         <f t="array" aca="1" ref="S55" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U55" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W55">
         <v>53</v>
       </c>
       <c r="X55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X55" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y55" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z55" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA55" t="str" cm="1">
         <f t="array" aca="1" ref="AA55" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10724,31 +10722,31 @@
       </c>
       <c r="H56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K56" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M56" s="1" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10756,11 +10754,11 @@
       </c>
       <c r="P56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q56" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -10768,34 +10766,34 @@
       </c>
       <c r="S56" s="1" cm="1">
         <f t="array" aca="1" ref="S56" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="T56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W56">
         <v>54</v>
       </c>
       <c r="X56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X56" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y56" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z56" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA56" t="str" cm="1">
         <f t="array" aca="1" ref="AA56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB56" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10808,31 +10806,31 @@
       </c>
       <c r="H57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K57" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M57" s="1" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10840,19 +10838,19 @@
       </c>
       <c r="P57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q57" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S57" s="1" cm="1">
         <f t="array" aca="1" ref="S57" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="T57" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10871,11 +10869,11 @@
       </c>
       <c r="Y57" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y57" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z57" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA57" t="str" cm="1">
         <f t="array" aca="1" ref="AA57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10896,27 +10894,27 @@
       </c>
       <c r="I58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K58" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M58" s="1" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10924,38 +10922,38 @@
       </c>
       <c r="P58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q58" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S58" s="1" cm="1">
         <f t="array" aca="1" ref="S58" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="T58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W58">
         <v>56</v>
       </c>
       <c r="X58" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X58" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y58" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y58" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z58" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -10963,7 +10961,7 @@
       </c>
       <c r="AA58" t="str" cm="1">
         <f t="array" aca="1" ref="AA58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB58" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10976,15 +10974,15 @@
       </c>
       <c r="H59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K59" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10992,15 +10990,15 @@
       </c>
       <c r="L59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M59" s="1" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11008,42 +11006,42 @@
       </c>
       <c r="P59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q59" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S59" s="1" cm="1">
         <f t="array" aca="1" ref="S59" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="T59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W59">
         <v>57</v>
       </c>
       <c r="X59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X59" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y59" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z59" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA59" t="str" cm="1">
         <f t="array" aca="1" ref="AA59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11064,11 +11062,11 @@
       </c>
       <c r="I60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K60" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11076,39 +11074,39 @@
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M60" s="1" cm="1">
         <f t="array" aca="1" ref="M60" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O60" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q60" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S60" s="1" cm="1">
         <f t="array" aca="1" ref="S60" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="T60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U60" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11119,19 +11117,19 @@
       </c>
       <c r="X60" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X60" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y60" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y60" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z60" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA60" t="str" cm="1">
         <f t="array" aca="1" ref="AA60" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB60" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11144,15 +11142,15 @@
       </c>
       <c r="H61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K61" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11160,23 +11158,23 @@
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M61" s="1" cm="1">
         <f t="array" aca="1" ref="M61" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q61" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11184,34 +11182,34 @@
       </c>
       <c r="R61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S61" s="1" cm="1">
         <f t="array" aca="1" ref="S61" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="T61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W61">
         <v>59</v>
       </c>
       <c r="X61" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X61" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y61" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y61" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z61" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA61" t="str" cm="1">
         <f t="array" aca="1" ref="AA61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11232,23 +11230,23 @@
       </c>
       <c r="I62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I62" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K62" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M62" s="1" cm="1">
         <f t="array" aca="1" ref="M62" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -11256,42 +11254,42 @@
       </c>
       <c r="O62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q62" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S62" s="1" cm="1">
         <f t="array" aca="1" ref="S62" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W62">
         <v>60</v>
       </c>
       <c r="X62" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X62" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y62" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y62" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z62" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -11312,15 +11310,15 @@
       </c>
       <c r="H63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I63" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" ref="J63:J69" ca="1" si="6">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K63" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11328,23 +11326,23 @@
       </c>
       <c r="L63" s="1">
         <f t="shared" ref="L63:L69" ca="1" si="7">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M63" s="1" cm="1">
         <f t="array" aca="1" ref="M63" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ref="N63:N69" ca="1" si="8">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ref="P63:P69" ca="1" si="9">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q63" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11352,15 +11350,15 @@
       </c>
       <c r="R63" s="1">
         <f t="shared" ref="R63:R69" ca="1" si="10">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S63" s="1" cm="1">
         <f t="array" aca="1" ref="S63" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ref="T63:T69" ca="1" si="11">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11371,15 +11369,15 @@
       </c>
       <c r="X63" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X63" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y63" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y63" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z63" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA63" t="str" cm="1">
         <f t="array" aca="1" ref="AA63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11396,55 +11394,55 @@
       </c>
       <c r="H64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I64" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K64" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M64" s="1" cm="1">
         <f t="array" aca="1" ref="M64" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q64" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S64" s="1" cm="1">
         <f t="array" aca="1" ref="S64" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11455,15 +11453,15 @@
       </c>
       <c r="X64" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X64" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y64" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y64" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z64" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA64" t="str" cm="1">
         <f t="array" aca="1" ref="AA64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11480,31 +11478,31 @@
       </c>
       <c r="H65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I65" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K65" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M65" s="1" cm="1">
         <f t="array" aca="1" ref="M65" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O65" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11512,7 +11510,7 @@
       </c>
       <c r="P65" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q65" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11520,11 +11518,11 @@
       </c>
       <c r="R65" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S65" s="1" cm="1">
         <f t="array" aca="1" ref="S65" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -11539,19 +11537,19 @@
       </c>
       <c r="X65" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X65" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y65" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y65" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z65" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA65" t="str" cm="1">
         <f t="array" aca="1" ref="AA65" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB65" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11564,31 +11562,31 @@
       </c>
       <c r="H66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I66" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K66" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M66" s="1" cm="1">
         <f t="array" aca="1" ref="M66" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11596,46 +11594,46 @@
       </c>
       <c r="P66" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q66" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S66" s="1" cm="1">
         <f t="array" aca="1" ref="S66" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W66">
         <v>64</v>
       </c>
       <c r="X66" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X66" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y66" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y66" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z66" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA66" t="str" cm="1">
         <f t="array" aca="1" ref="AA66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB66" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11648,15 +11646,15 @@
       </c>
       <c r="H67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K67" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11664,19 +11662,19 @@
       </c>
       <c r="L67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M67" s="1" cm="1">
         <f t="array" aca="1" ref="M67" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -11684,19 +11682,19 @@
       </c>
       <c r="Q67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q67" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S67" s="1" cm="1">
         <f t="array" aca="1" ref="S67" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11707,19 +11705,19 @@
       </c>
       <c r="X67" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X67" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y67" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y67" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z67" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA67" t="str" cm="1">
         <f t="array" aca="1" ref="AA67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB67" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11732,19 +11730,19 @@
       </c>
       <c r="H68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K68" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -11752,11 +11750,11 @@
       </c>
       <c r="M68" s="1" cm="1">
         <f t="array" aca="1" ref="M68" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11764,7 +11762,7 @@
       </c>
       <c r="P68" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q68" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11772,38 +11770,38 @@
       </c>
       <c r="R68" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" cm="1">
         <f t="array" aca="1" ref="S68" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W68">
         <v>66</v>
       </c>
       <c r="X68" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X68" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y68" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y68" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z68" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA68" t="str" cm="1">
         <f t="array" aca="1" ref="AA68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB68" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11816,7 +11814,7 @@
       </c>
       <c r="H69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11824,7 +11822,7 @@
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K69" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11832,15 +11830,15 @@
       </c>
       <c r="L69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M69" s="1" cm="1">
         <f t="array" aca="1" ref="M69" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11848,23 +11846,23 @@
       </c>
       <c r="P69" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q69" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R69" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S69" s="1" cm="1">
         <f t="array" aca="1" ref="S69" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="T69" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11875,11 +11873,11 @@
       </c>
       <c r="X69" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X69" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y69" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y69" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z69" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -11887,7 +11885,7 @@
       </c>
       <c r="AA69" t="str" cm="1">
         <f t="array" aca="1" ref="AA69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB69" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11908,11 +11906,11 @@
       </c>
       <c r="Z70" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA70" t="str" cm="1">
         <f t="array" aca="1" ref="AA70" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB70" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11929,15 +11927,15 @@
       </c>
       <c r="Y71" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y71" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z71" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA71" t="str" cm="1">
         <f t="array" aca="1" ref="AA71" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB71" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11950,15 +11948,15 @@
       </c>
       <c r="X72" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X72" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y72" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y72" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z72" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA72" t="str" cm="1">
         <f t="array" aca="1" ref="AA72" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11975,7 +11973,7 @@
       </c>
       <c r="X73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X73" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y73" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11983,7 +11981,7 @@
       </c>
       <c r="Z73" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA73" t="str" cm="1">
         <f t="array" aca="1" ref="AA73" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12000,7 +11998,7 @@
       </c>
       <c r="X74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X74" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y74" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12008,11 +12006,11 @@
       </c>
       <c r="Z74" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA74" t="str" cm="1">
         <f t="array" aca="1" ref="AA74" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB74" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12025,11 +12023,11 @@
       </c>
       <c r="X75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X75" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y75" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z75" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12050,11 +12048,11 @@
       </c>
       <c r="X76" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X76" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y76" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y76" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z76" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12062,7 +12060,7 @@
       </c>
       <c r="AA76" t="str" cm="1">
         <f t="array" aca="1" ref="AA76" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB76" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12075,7 +12073,7 @@
       </c>
       <c r="X77" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X77" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y77" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y77" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12083,11 +12081,11 @@
       </c>
       <c r="Z77" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA77" t="str" cm="1">
         <f t="array" aca="1" ref="AA77" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB77" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12100,19 +12098,19 @@
       </c>
       <c r="X78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X78" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y78" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z78" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA78" t="str" cm="1">
         <f t="array" aca="1" ref="AA78" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB78" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12125,7 +12123,7 @@
       </c>
       <c r="X79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X79" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y79" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12158,11 +12156,11 @@
       </c>
       <c r="Z80" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA80" t="str" cm="1">
         <f t="array" aca="1" ref="AA80" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB80" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12175,11 +12173,11 @@
       </c>
       <c r="X81" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X81" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y81" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y81" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z81" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12187,7 +12185,7 @@
       </c>
       <c r="AA81" t="str" cm="1">
         <f t="array" aca="1" ref="AA81" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB81" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12200,11 +12198,11 @@
       </c>
       <c r="X82" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X82" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y82" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y82" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z82" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12212,7 +12210,7 @@
       </c>
       <c r="AA82" t="str" cm="1">
         <f t="array" aca="1" ref="AA82" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB82" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12225,15 +12223,15 @@
       </c>
       <c r="X83" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X83" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y83" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y83" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z83" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA83" t="str" cm="1">
         <f t="array" aca="1" ref="AA83" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12250,7 +12248,7 @@
       </c>
       <c r="X84" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X84" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y84" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y84" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12258,7 +12256,7 @@
       </c>
       <c r="Z84" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA84" t="str" cm="1">
         <f t="array" aca="1" ref="AA84" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12275,11 +12273,11 @@
       </c>
       <c r="X85" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X85" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y85" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y85" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z85" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12300,19 +12298,19 @@
       </c>
       <c r="X86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X86" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y86" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z86" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA86" t="str" cm="1">
         <f t="array" aca="1" ref="AA86" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB86" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12325,15 +12323,15 @@
       </c>
       <c r="X87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X87" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y87" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z87" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA87" t="str" cm="1">
         <f t="array" aca="1" ref="AA87" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12350,15 +12348,15 @@
       </c>
       <c r="X88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X88" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y88" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z88" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA88" t="str" cm="1">
         <f t="array" aca="1" ref="AA88" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12387,7 +12385,7 @@
       </c>
       <c r="AA89" t="str" cm="1">
         <f t="array" aca="1" ref="AA89" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB89" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12404,7 +12402,7 @@
       </c>
       <c r="Y90" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y90" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z90" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12412,7 +12410,7 @@
       </c>
       <c r="AA90" t="str" cm="1">
         <f t="array" aca="1" ref="AA90" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB90" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>

--- a/Haushaltsinteressen.xlsx
+++ b/Haushaltsinteressen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeOnD\projects\gw-flat-distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD176CBB-1F80-4A88-A980-514E310BB6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939AF606-5459-4BC7-8BE2-B23D94283CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{575969AB-465A-427A-BC78-B7EE1C5F931F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{575969AB-465A-427A-BC78-B7EE1C5F931F}"/>
   </bookViews>
   <sheets>
     <sheet name="Haushaltswünsche" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -198,6 +198,12 @@
   <si>
     <t>Quelle für initiale Zufallswerte für Wohnungsdaten zum Kopieren</t>
   </si>
+  <si>
+    <t>Rolli_Gewicht</t>
+  </si>
+  <si>
+    <t>rollitauglich</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +261,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -378,32 +387,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{220DB0DC-9BB2-4FB7-8FAB-4A56D4B0CB29}" name="Haushaltswünsche_tabelle" displayName="Haushaltswünsche_tabelle" ref="A1:O68" totalsRowShown="0" dataDxfId="35">
-  <autoFilter ref="A1:O68" xr:uid="{220DB0DC-9BB2-4FB7-8FAB-4A56D4B0CB29}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{8B9545A9-6C68-48AE-B755-211CBD83F694}" name="id" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{9432D6D6-E753-4E79-B4E9-0D25A623CDCF}" name="Wohnart" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{7FD276AA-31C2-40BD-8CD0-A0B04BF803C9}" name="Gebäude" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{31191F4B-236B-4D9F-81FE-6E3263EAD633}" name="Geb_Gewicht" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{C326CAFE-A1A1-4FD8-A582-78DF25A8BDFC}" name="Etage" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{048ABE38-9F2E-4A81-90BF-6546B5D621B4}" name="Eta_Gewicht" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{EDFF610F-BF69-437E-909A-6FB377BF6B3C}" name="Nachbar" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{91318EAF-597E-4851-AFA5-3EC795C899AF}" name="Nac_Gewicht" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{E93BB0B8-6E27-4E8F-83E9-5490E3D837F5}" name="Kleine_Wohnung" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{517F5226-831F-4AEF-851B-02F3B4D6FC2F}" name="Kle_Gewicht" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{0B8031BC-60CC-4B23-80DF-8B82FBBE48CA}" name="Haustier" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{42CEC65D-E50F-44DF-BF9C-D4A2D564C375}" name="Hau_Gewicht" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{0361707A-F85A-432B-9A6E-EAF3E184D7F9}" name="KonkreteWohnung" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{78CE08A4-602A-415E-B8C0-F2472EEDDC21}" name="Kon_Gewicht" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{23253DDC-D3E5-4F20-A944-8FCCEA1BC72B}" name="Rollitauglich" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{220DB0DC-9BB2-4FB7-8FAB-4A56D4B0CB29}" name="Haushaltswünsche_tabelle" displayName="Haushaltswünsche_tabelle" ref="A1:P68" totalsRowShown="0" dataDxfId="36">
+  <autoFilter ref="A1:P68" xr:uid="{220DB0DC-9BB2-4FB7-8FAB-4A56D4B0CB29}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{8B9545A9-6C68-48AE-B755-211CBD83F694}" name="id" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{9432D6D6-E753-4E79-B4E9-0D25A623CDCF}" name="Wohnart" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{7FD276AA-31C2-40BD-8CD0-A0B04BF803C9}" name="Gebäude" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{31191F4B-236B-4D9F-81FE-6E3263EAD633}" name="Geb_Gewicht" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{C326CAFE-A1A1-4FD8-A582-78DF25A8BDFC}" name="Etage" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{048ABE38-9F2E-4A81-90BF-6546B5D621B4}" name="Eta_Gewicht" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{EDFF610F-BF69-437E-909A-6FB377BF6B3C}" name="Nachbar" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{91318EAF-597E-4851-AFA5-3EC795C899AF}" name="Nac_Gewicht" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{E93BB0B8-6E27-4E8F-83E9-5490E3D837F5}" name="Kleine_Wohnung" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{517F5226-831F-4AEF-851B-02F3B4D6FC2F}" name="Kle_Gewicht" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{0B8031BC-60CC-4B23-80DF-8B82FBBE48CA}" name="Haustier" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{42CEC65D-E50F-44DF-BF9C-D4A2D564C375}" name="Hau_Gewicht" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{0361707A-F85A-432B-9A6E-EAF3E184D7F9}" name="KonkreteWohnung" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{78CE08A4-602A-415E-B8C0-F2472EEDDC21}" name="Kon_Gewicht" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{23253DDC-D3E5-4F20-A944-8FCCEA1BC72B}" name="Rollitauglich" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{7E5D9198-1518-4BD7-B8A3-8F7BEA3D52CC}" name="Rolli_Gewicht" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2C07A7F3-546B-4BD8-825A-FEF5822BE428}" name="gewichte_tab" displayName="gewichte_tab" ref="A15:B21" totalsRowShown="0">
-  <autoFilter ref="A15:B21" xr:uid="{2C07A7F3-546B-4BD8-825A-FEF5822BE428}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2C07A7F3-546B-4BD8-825A-FEF5822BE428}" name="gewichte_tab" displayName="gewichte_tab" ref="A15:B22" totalsRowShown="0">
+  <autoFilter ref="A15:B22" xr:uid="{2C07A7F3-546B-4BD8-825A-FEF5822BE428}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{98474E74-CC4E-458E-B78B-4BA5076F16C1}" name="Art"/>
     <tableColumn id="2" xr3:uid="{1D2192B5-0338-4DB6-BBCC-77367078B2AB}" name="Gewicht"/>
@@ -448,50 +458,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6A2032-0AFD-411E-BFFF-CCE40100A937}" name="Quelle_Zufallswerte" displayName="Quelle_Zufallswerte" ref="G2:U69" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD6A2032-0AFD-411E-BFFF-CCE40100A937}" name="Quelle_Zufallswerte" displayName="Quelle_Zufallswerte" ref="G2:U69" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="G2:U69" xr:uid="{AD6A2032-0AFD-411E-BFFF-CCE40100A937}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5D6A38FB-CE3F-4572-B714-571059576587}" name="id" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{036E7D7D-ACBF-4BDF-AB41-F0005EA91489}" name="Wohnart" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{5D6A38FB-CE3F-4572-B714-571059576587}" name="id" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{036E7D7D-ACBF-4BDF-AB41-F0005EA91489}" name="Wohnart" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2BA42BAA-EAB6-4299-B29A-65463E1CBDE9}" name="Gebäude" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{2BA42BAA-EAB6-4299-B29A-65463E1CBDE9}" name="Gebäude" dataDxfId="17">
       <calculatedColumnFormula array="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2625455C-0ECE-49C5-B8AF-AF244622FA1C}" name="Geb_Gewicht" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{2625455C-0ECE-49C5-B8AF-AF244622FA1C}" name="Geb_Gewicht" dataDxfId="16">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{912E405F-B28B-45F2-BFC1-ECCC7485F64B}" name="Etage" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{912E405F-B28B-45F2-BFC1-ECCC7485F64B}" name="Etage" dataDxfId="15">
       <calculatedColumnFormula array="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BBECB359-AE68-4EAA-B706-21C83F76F3BD}" name="Eta_Gewicht" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{BBECB359-AE68-4EAA-B706-21C83F76F3BD}" name="Eta_Gewicht" dataDxfId="14">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D8BF9B70-FBB7-445A-BF6E-7F2FD00806C1}" name="Nachbar" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{D8BF9B70-FBB7-445A-BF6E-7F2FD00806C1}" name="Nachbar" dataDxfId="13">
       <calculatedColumnFormula array="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A8BAC2D8-EB87-4ADF-B071-96268E34D9EF}" name="Nac_Gewicht" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{A8BAC2D8-EB87-4ADF-B071-96268E34D9EF}" name="Nac_Gewicht" dataDxfId="12">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0B2B4F26-EE61-4EF5-87A1-3363A94BE6D9}" name="Kleine_Wohnung" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{0B2B4F26-EE61-4EF5-87A1-3363A94BE6D9}" name="Kleine_Wohnung" dataDxfId="11">
       <calculatedColumnFormula array="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7ABB4E75-AE57-4183-8650-F8B7F19833A0}" name="Kle_Gewicht" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{7ABB4E75-AE57-4183-8650-F8B7F19833A0}" name="Kle_Gewicht" dataDxfId="10">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D409233C-4152-4DE0-AD24-AFE7C8429032}" name="Haustier" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{D409233C-4152-4DE0-AD24-AFE7C8429032}" name="Haustier" dataDxfId="9">
       <calculatedColumnFormula array="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{814EE540-E0EE-4929-82AE-BEBC93531086}" name="Hau_Gewicht" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{814EE540-E0EE-4929-82AE-BEBC93531086}" name="Hau_Gewicht" dataDxfId="8">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{778C2D86-8D13-42C1-9E58-534EC08C3354}" name="KonkreteWohnung" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{778C2D86-8D13-42C1-9E58-534EC08C3354}" name="KonkreteWohnung" dataDxfId="7">
       <calculatedColumnFormula array="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BDB5F003-4BCA-4493-A8CE-29E3AE36DBDD}" name="Kon_Gewicht" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{BDB5F003-4BCA-4493-A8CE-29E3AE36DBDD}" name="Kon_Gewicht" dataDxfId="6">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0BF78B30-5E57-47C2-B662-B265EC3524E2}" name="Rollitauglich" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{0BF78B30-5E57-47C2-B662-B265EC3524E2}" name="Rollitauglich" dataDxfId="5">
       <calculatedColumnFormula array="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -524,19 +534,19 @@
   <autoFilter ref="W2:AB90" xr:uid="{3D61A7B6-4AC9-4DAC-9F10-668D1BC1DFBE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{09D18CC6-2975-4E76-986A-F45F76F7F9DC}" name="WohnungsID"/>
-    <tableColumn id="2" xr3:uid="{D6939518-C9B0-467C-828D-7EA7DEC1D165}" name="Art" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{D6939518-C9B0-467C-828D-7EA7DEC1D165}" name="Art" dataDxfId="4">
       <calculatedColumnFormula array="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E5695D9-0DE0-47D0-AC87-57864722886D}" name="Gebäude" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{3E5695D9-0DE0-47D0-AC87-57864722886D}" name="Gebäude" dataDxfId="3">
       <calculatedColumnFormula array="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7ABA3A91-D1EF-40AD-B35E-05FC4CAD53CB}" name="Etage" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{7ABA3A91-D1EF-40AD-B35E-05FC4CAD53CB}" name="Etage" dataDxfId="2">
       <calculatedColumnFormula>IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{12F90550-FE10-4C66-A5A0-240D3AE383FA}" name="Kleine_Wohnung">
       <calculatedColumnFormula array="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CF01CB33-96DC-425E-BCE6-7B0BA2FBF58E}" name="Rollitauglich" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{CF01CB33-96DC-425E-BCE6-7B0BA2FBF58E}" name="Rollitauglich" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -853,7 +863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93467E3-3349-4013-94D8-17281BFB96B0}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -922,6 +934,9 @@
       <c r="O1" t="s">
         <v>22</v>
       </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
       <c r="Q1" t="s">
         <v>37</v>
       </c>
@@ -977,6 +992,9 @@
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5</v>
       </c>
       <c r="Q2">
         <v>1.5</v>
@@ -1035,6 +1053,9 @@
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
       <c r="Q3">
         <v>2.5</v>
       </c>
@@ -1092,6 +1113,9 @@
       <c r="O4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
       <c r="Q4">
         <v>3.5</v>
       </c>
@@ -1149,6 +1173,9 @@
       <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
       <c r="Q5">
         <v>4.5</v>
       </c>
@@ -1206,6 +1233,9 @@
       <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
       <c r="Q6">
         <v>5.5</v>
       </c>
@@ -1263,6 +1293,9 @@
       <c r="O7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
       <c r="Q7" t="s">
         <v>41</v>
       </c>
@@ -1320,6 +1353,9 @@
       <c r="O8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
       <c r="S8" s="3">
         <f>SUM(S2:S7)</f>
         <v>67</v>
@@ -1371,6 +1407,9 @@
       <c r="O9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P9" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -1418,6 +1457,9 @@
       <c r="O10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -1465,6 +1507,9 @@
       <c r="O11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P11" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1512,6 +1557,9 @@
       <c r="O12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P12" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -1559,6 +1607,9 @@
       <c r="O13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1606,6 +1657,9 @@
       <c r="O14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P14" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -1653,6 +1707,9 @@
       <c r="O15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -1700,8 +1757,11 @@
       <c r="O16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1747,8 +1807,11 @@
       <c r="O17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="O18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1841,8 +1907,11 @@
       <c r="O19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1888,8 +1957,11 @@
       <c r="O20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1935,8 +2007,11 @@
       <c r="O21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1982,8 +2057,11 @@
       <c r="O22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2029,8 +2107,11 @@
       <c r="O23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2076,8 +2157,11 @@
       <c r="O24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2123,8 +2207,11 @@
       <c r="O25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2170,8 +2257,11 @@
       <c r="O26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2217,8 +2307,11 @@
       <c r="O27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2264,8 +2357,11 @@
       <c r="O28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2311,8 +2407,11 @@
       <c r="O29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2358,8 +2457,11 @@
       <c r="O30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2405,8 +2507,11 @@
       <c r="O31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2452,8 +2557,11 @@
       <c r="O32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2499,8 +2607,11 @@
       <c r="O33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2546,8 +2657,11 @@
       <c r="O34" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2593,8 +2707,11 @@
       <c r="O35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2640,8 +2757,11 @@
       <c r="O36" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2687,8 +2807,11 @@
       <c r="O37" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2734,8 +2857,11 @@
       <c r="O38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2781,8 +2907,11 @@
       <c r="O39" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2828,8 +2957,11 @@
       <c r="O40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2875,8 +3007,11 @@
       <c r="O41" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2922,8 +3057,11 @@
       <c r="O42" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2969,8 +3107,11 @@
       <c r="O43" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3016,8 +3157,11 @@
       <c r="O44" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3063,8 +3207,11 @@
       <c r="O45" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3110,8 +3257,11 @@
       <c r="O46" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P46" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3157,8 +3307,11 @@
       <c r="O47" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P47" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3204,8 +3357,11 @@
       <c r="O48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3251,8 +3407,11 @@
       <c r="O49" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3298,8 +3457,11 @@
       <c r="O50" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3345,8 +3507,11 @@
       <c r="O51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3392,8 +3557,11 @@
       <c r="O52" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3439,8 +3607,11 @@
       <c r="O53" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P53" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3486,8 +3657,11 @@
       <c r="O54" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3533,8 +3707,11 @@
       <c r="O55" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3580,8 +3757,11 @@
       <c r="O56" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3627,8 +3807,11 @@
       <c r="O57" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P57" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3674,8 +3857,11 @@
       <c r="O58" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P58" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3721,8 +3907,11 @@
       <c r="O59" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3768,8 +3957,11 @@
       <c r="O60" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3815,8 +4007,11 @@
       <c r="O61" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3862,8 +4057,11 @@
       <c r="O62" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3909,8 +4107,11 @@
       <c r="O63" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P63" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3956,8 +4157,11 @@
       <c r="O64" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P64" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4003,8 +4207,11 @@
       <c r="O65" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4050,8 +4257,11 @@
       <c r="O66" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P66" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4097,8 +4307,11 @@
       <c r="O67" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4143,6 +4356,9 @@
       </c>
       <c r="O68" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6037,8 +6253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A377F6-BF96-4CE6-B436-5EC800737A20}">
   <dimension ref="A1:AD90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6186,7 +6402,7 @@
       </c>
       <c r="H3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6194,7 +6410,7 @@
       </c>
       <c r="J3" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6202,15 +6418,15 @@
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L62" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N62" ca="1" si="1">RANDBETWEEN(0,10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6218,34 +6434,34 @@
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P62" ca="1" si="2">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R62" ca="1" si="3">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" ref="T3:T62" ca="1" si="4">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X3" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y3" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6257,11 +6473,11 @@
       </c>
       <c r="AA3" t="str" cm="1">
         <f t="array" aca="1" ref="AA3" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB3" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -6284,31 +6500,31 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J62" ca="1" si="5">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -6316,30 +6532,30 @@
       </c>
       <c r="R4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S4" s="1" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
       <c r="X4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X4" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y4" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z4" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -6363,11 +6579,11 @@
       </c>
       <c r="H5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -6379,62 +6595,62 @@
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U5" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
       <c r="X5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X5" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y5" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z5" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="str" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB5" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6447,31 +6663,31 @@
       </c>
       <c r="H6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6479,23 +6695,23 @@
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S6" s="1" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6514,11 +6730,11 @@
       </c>
       <c r="Z6" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="str" cm="1">
         <f t="array" aca="1" ref="AA6" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB6" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -6537,15 +6753,15 @@
       </c>
       <c r="H7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6553,23 +6769,23 @@
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M7" s="1" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -6577,34 +6793,34 @@
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W7">
         <v>5</v>
       </c>
       <c r="X7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X7" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y7" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z7" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="str" cm="1">
         <f t="array" aca="1" ref="AA7" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6627,19 +6843,19 @@
       </c>
       <c r="H8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -6647,11 +6863,11 @@
       </c>
       <c r="M8" s="1" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6659,7 +6875,7 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -6667,11 +6883,11 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8" s="1" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6686,11 +6902,11 @@
       </c>
       <c r="X8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X8" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y8" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z8" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -6721,7 +6937,7 @@
       </c>
       <c r="I9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -6733,15 +6949,15 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6749,23 +6965,23 @@
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6776,7 +6992,7 @@
       </c>
       <c r="X9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X9" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y9" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6784,7 +7000,7 @@
       </c>
       <c r="Z9" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="str" cm="1">
         <f t="array" aca="1" ref="AA9" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6804,7 +7020,7 @@
       </c>
       <c r="H10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6812,23 +7028,23 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6836,11 +7052,11 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -6848,11 +7064,11 @@
       </c>
       <c r="S10" s="1" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6863,7 +7079,7 @@
       </c>
       <c r="X10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X10" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y10" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -6871,7 +7087,7 @@
       </c>
       <c r="Z10" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="str" cm="1">
         <f t="array" aca="1" ref="AA10" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6891,15 +7107,15 @@
       </c>
       <c r="H11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -6907,23 +7123,23 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" s="1" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -6931,15 +7147,15 @@
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S11" s="1" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -6950,11 +7166,11 @@
       </c>
       <c r="X11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y11" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z11" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -6978,31 +7194,31 @@
       </c>
       <c r="H12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7014,15 +7230,15 @@
       </c>
       <c r="Q12" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" s="1" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -7037,7 +7253,7 @@
       </c>
       <c r="X12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X12" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y12" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7065,39 +7281,39 @@
       </c>
       <c r="H13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M13" s="1" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -7105,38 +7321,38 @@
       </c>
       <c r="R13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S13" s="1" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W13">
         <v>11</v>
       </c>
       <c r="X13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X13" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y13" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z13" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="str" cm="1">
         <f t="array" aca="1" ref="AA13" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB13" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7152,15 +7368,15 @@
       </c>
       <c r="H14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7168,11 +7384,11 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M14" s="1" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -7180,42 +7396,42 @@
       </c>
       <c r="O14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" s="1" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U14" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W14">
         <v>12</v>
       </c>
       <c r="X14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X14" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y14" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z14" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -7223,7 +7439,7 @@
       </c>
       <c r="AA14" t="str" cm="1">
         <f t="array" aca="1" ref="AA14" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB14" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7242,15 +7458,15 @@
       </c>
       <c r="H15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7258,39 +7474,39 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S15" s="1" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U15" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7301,7 +7517,7 @@
       </c>
       <c r="X15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X15" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y15" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7332,31 +7548,31 @@
       </c>
       <c r="H16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" s="1" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7364,7 +7580,7 @@
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -7372,15 +7588,15 @@
       </c>
       <c r="R16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S16" s="1" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7399,11 +7615,11 @@
       </c>
       <c r="Z16" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="str" cm="1">
         <f t="array" aca="1" ref="AA16" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB16" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7422,15 +7638,15 @@
       </c>
       <c r="H17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7438,15 +7654,15 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M17" s="1" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7454,23 +7670,23 @@
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S17" s="1" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7481,7 +7697,7 @@
       </c>
       <c r="X17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X17" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y17" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7512,7 +7728,7 @@
       </c>
       <c r="H18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -7520,7 +7736,7 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7528,15 +7744,15 @@
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M18" s="1" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7544,23 +7760,23 @@
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S18" s="1" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7571,19 +7787,19 @@
       </c>
       <c r="X18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X18" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y18" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z18" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="str" cm="1">
         <f t="array" aca="1" ref="AA18" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB18" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7602,15 +7818,15 @@
       </c>
       <c r="H19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -7618,39 +7834,39 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M19" s="1" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S19" s="1" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U19" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7661,15 +7877,15 @@
       </c>
       <c r="X19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X19" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y19" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z19" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="str" cm="1">
         <f t="array" aca="1" ref="AA19" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7696,7 +7912,7 @@
       </c>
       <c r="I20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -7704,23 +7920,23 @@
       </c>
       <c r="K20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M20" s="1" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -7728,19 +7944,19 @@
       </c>
       <c r="Q20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7751,11 +7967,11 @@
       </c>
       <c r="X20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X20" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y20" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z20" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -7763,7 +7979,7 @@
       </c>
       <c r="AA20" t="str" cm="1">
         <f t="array" aca="1" ref="AA20" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB20" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7782,31 +7998,31 @@
       </c>
       <c r="H21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7814,27 +8030,27 @@
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S21" s="1" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U21" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W21">
         <v>19</v>
@@ -7853,7 +8069,7 @@
       </c>
       <c r="AA21" t="str" cm="1">
         <f t="array" aca="1" ref="AA21" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB21" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -7861,36 +8077,42 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="G22" s="1">
         <v>20</v>
       </c>
       <c r="H22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7898,42 +8120,42 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S22" s="1" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U22" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W22">
         <v>20</v>
       </c>
       <c r="X22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X22" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y22" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z22" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="str" cm="1">
         <f t="array" aca="1" ref="AA22" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7950,11 +8172,11 @@
       </c>
       <c r="H23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -7962,19 +8184,19 @@
       </c>
       <c r="K23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M23" s="1" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -7982,27 +8204,27 @@
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W23">
         <v>21</v>
@@ -8017,11 +8239,11 @@
       </c>
       <c r="Z23" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA23" t="str" cm="1">
         <f t="array" aca="1" ref="AA23" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB23" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8042,23 +8264,23 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8066,38 +8288,38 @@
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S24" s="1" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U24" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W24">
         <v>22</v>
       </c>
       <c r="X24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X24" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y24" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z24" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -8105,7 +8327,7 @@
       </c>
       <c r="AA24" t="str" cm="1">
         <f t="array" aca="1" ref="AA24" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB24" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8118,7 +8340,7 @@
       </c>
       <c r="H25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8126,47 +8348,47 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M25" s="1" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" s="1" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U25" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8177,7 +8399,7 @@
       </c>
       <c r="X25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X25" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y25" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8185,7 +8407,7 @@
       </c>
       <c r="Z25" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="str" cm="1">
         <f t="array" aca="1" ref="AA25" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8193,7 +8415,7 @@
       </c>
       <c r="AB25" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
@@ -8202,15 +8424,15 @@
       </c>
       <c r="H26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8218,15 +8440,15 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="1" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8234,27 +8456,27 @@
       </c>
       <c r="P26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S26" s="1" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U26" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W26">
         <v>24</v>
@@ -8269,7 +8491,7 @@
       </c>
       <c r="Z26" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="str" cm="1">
         <f t="array" aca="1" ref="AA26" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8286,7 +8508,7 @@
       </c>
       <c r="H27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8294,7 +8516,7 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8302,15 +8524,15 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8318,19 +8540,19 @@
       </c>
       <c r="P27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q27" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S27" s="1" cm="1">
         <f t="array" aca="1" ref="S27" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -8338,14 +8560,14 @@
       </c>
       <c r="U27" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W27">
         <v>25</v>
       </c>
       <c r="X27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X27" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y27" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8357,7 +8579,7 @@
       </c>
       <c r="AA27" t="str" cm="1">
         <f t="array" aca="1" ref="AA27" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB27" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8374,15 +8596,15 @@
       </c>
       <c r="I28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -8390,50 +8612,50 @@
       </c>
       <c r="M28" s="1" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O28" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q28" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S28" s="1" cm="1">
         <f t="array" aca="1" ref="S28" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U28" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U28" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W28">
         <v>26</v>
       </c>
       <c r="X28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X28" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y28" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z28" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -8458,15 +8680,15 @@
       </c>
       <c r="I29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -8474,11 +8696,11 @@
       </c>
       <c r="M29" s="1" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8486,11 +8708,11 @@
       </c>
       <c r="P29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q29" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -8498,34 +8720,34 @@
       </c>
       <c r="S29" s="1" cm="1">
         <f t="array" aca="1" ref="S29" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U29" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W29">
         <v>27</v>
       </c>
       <c r="X29" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X29" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y29" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y29" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z29" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="str" cm="1">
         <f t="array" aca="1" ref="AA29" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB29" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8538,15 +8760,15 @@
       </c>
       <c r="H30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8554,11 +8776,11 @@
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M30" s="1" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -8570,34 +8792,34 @@
       </c>
       <c r="P30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q30" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S30" s="1" cm="1">
         <f t="array" aca="1" ref="S30" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U30" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W30">
         <v>28</v>
       </c>
       <c r="X30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X30" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y30" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8605,7 +8827,7 @@
       </c>
       <c r="Z30" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA30" t="str" cm="1">
         <f t="array" aca="1" ref="AA30" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8622,27 +8844,27 @@
       </c>
       <c r="H31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M31" s="1" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -8654,23 +8876,23 @@
       </c>
       <c r="P31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q31" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S31" s="1" cm="1">
         <f t="array" aca="1" ref="S31" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U31" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8681,19 +8903,19 @@
       </c>
       <c r="X31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X31" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y31" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z31" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="str" cm="1">
         <f t="array" aca="1" ref="AA31" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB31" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8706,15 +8928,15 @@
       </c>
       <c r="H32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8722,39 +8944,39 @@
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S32" s="1" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U32" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U32" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8769,7 +8991,7 @@
       </c>
       <c r="Y32" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y32" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z32" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -8790,15 +9012,15 @@
       </c>
       <c r="H33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8806,54 +9028,54 @@
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="1" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q33" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S33" s="1" cm="1">
         <f t="array" aca="1" ref="S33" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U33" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W33">
         <v>31</v>
       </c>
       <c r="X33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X33" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y33" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z33" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -8861,7 +9083,7 @@
       </c>
       <c r="AA33" t="str" cm="1">
         <f t="array" aca="1" ref="AA33" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB33" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8874,55 +9096,55 @@
       </c>
       <c r="H34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M34" s="1" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q34" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S34" s="1" cm="1">
         <f t="array" aca="1" ref="S34" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -8933,19 +9155,19 @@
       </c>
       <c r="X34" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X34" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y34" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y34" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z34" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA34" t="str" cm="1">
         <f t="array" aca="1" ref="AA34" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB34" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -8958,7 +9180,7 @@
       </c>
       <c r="H35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -8966,7 +9188,7 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -8978,19 +9200,19 @@
       </c>
       <c r="M35" s="1" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q35" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9002,11 +9224,11 @@
       </c>
       <c r="S35" s="1" cm="1">
         <f t="array" aca="1" ref="S35" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U35" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9017,19 +9239,19 @@
       </c>
       <c r="X35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X35" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y35" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z35" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA35" t="str" cm="1">
         <f t="array" aca="1" ref="AA35" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB35" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -9042,31 +9264,31 @@
       </c>
       <c r="H36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M36" s="1" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9074,34 +9296,34 @@
       </c>
       <c r="P36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q36" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S36" s="1" cm="1">
         <f t="array" aca="1" ref="S36" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U36" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W36">
         <v>34</v>
       </c>
       <c r="X36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X36" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y36" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9109,11 +9331,11 @@
       </c>
       <c r="Z36" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="str" cm="1">
         <f t="array" aca="1" ref="AA36" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB36" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -9126,7 +9348,7 @@
       </c>
       <c r="H37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9134,35 +9356,35 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M37" s="1" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q37" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -9170,26 +9392,26 @@
       </c>
       <c r="S37" s="1" cm="1">
         <f t="array" aca="1" ref="S37" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U37" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U37" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W37">
         <v>35</v>
       </c>
       <c r="X37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X37" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y37" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z37" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -9210,7 +9432,7 @@
       </c>
       <c r="H38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I38" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9218,23 +9440,23 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M38" s="1" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9242,11 +9464,11 @@
       </c>
       <c r="P38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q38" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -9254,34 +9476,34 @@
       </c>
       <c r="S38" s="1" cm="1">
         <f t="array" aca="1" ref="S38" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U38" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W38">
         <v>36</v>
       </c>
       <c r="X38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X38" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y38" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z38" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="str" cm="1">
         <f t="array" aca="1" ref="AA38" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB38" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -9310,15 +9532,15 @@
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M39" s="1" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9326,7 +9548,7 @@
       </c>
       <c r="P39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q39" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9334,30 +9556,30 @@
       </c>
       <c r="R39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S39" s="1" cm="1">
         <f t="array" aca="1" ref="S39" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U39" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U39" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W39">
         <v>37</v>
       </c>
       <c r="X39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X39" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y39" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z39" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -9382,35 +9604,35 @@
       </c>
       <c r="I40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q40" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9418,15 +9640,15 @@
       </c>
       <c r="R40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S40" s="1" cm="1">
         <f t="array" aca="1" ref="S40" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="T40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U40" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9437,7 +9659,7 @@
       </c>
       <c r="X40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X40" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y40" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9445,11 +9667,11 @@
       </c>
       <c r="Z40" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA40" t="str" cm="1">
         <f t="array" aca="1" ref="AA40" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB40" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -9462,15 +9684,15 @@
       </c>
       <c r="H41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9478,27 +9700,27 @@
       </c>
       <c r="L41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M41" s="1" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O41" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q41" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -9506,22 +9728,22 @@
       </c>
       <c r="S41" s="1" cm="1">
         <f t="array" aca="1" ref="S41" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="T41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U41" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U41" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W41">
         <v>39</v>
       </c>
       <c r="X41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X41" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y41" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9546,35 +9768,35 @@
       </c>
       <c r="H42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M42" s="1" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -9586,15 +9808,15 @@
       </c>
       <c r="R42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1" cm="1">
         <f t="array" aca="1" ref="S42" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="T42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U42" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9605,15 +9827,15 @@
       </c>
       <c r="X42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X42" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y42" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z42" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA42" t="str" cm="1">
         <f t="array" aca="1" ref="AA42" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9630,15 +9852,15 @@
       </c>
       <c r="H43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9646,15 +9868,15 @@
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M43" s="1" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9662,42 +9884,42 @@
       </c>
       <c r="P43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q43" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S43" s="1" cm="1">
         <f t="array" aca="1" ref="S43" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U43" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W43">
         <v>41</v>
       </c>
       <c r="X43" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X43" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y43" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y43" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z43" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA43" t="str" cm="1">
         <f t="array" aca="1" ref="AA43" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9714,15 +9936,15 @@
       </c>
       <c r="H44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9730,7 +9952,7 @@
       </c>
       <c r="L44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
@@ -9738,46 +9960,46 @@
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q44" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" cm="1">
         <f t="array" aca="1" ref="S44" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U44" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U44" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W44">
         <v>42</v>
       </c>
       <c r="X44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X44" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y44" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z44" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -9806,11 +10028,11 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -9818,54 +10040,54 @@
       </c>
       <c r="M45" s="1" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O45" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q45" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S45" s="1" cm="1">
         <f t="array" aca="1" ref="S45" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U45" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U45" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W45">
         <v>43</v>
       </c>
       <c r="X45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X45" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y45" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z45" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA45" t="str" cm="1">
         <f t="array" aca="1" ref="AA45" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -9882,15 +10104,15 @@
       </c>
       <c r="H46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9898,23 +10120,23 @@
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M46" s="1" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q46" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -9922,30 +10144,30 @@
       </c>
       <c r="R46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S46" s="1" cm="1">
         <f t="array" aca="1" ref="S46" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U46" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U46" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W46">
         <v>44</v>
       </c>
       <c r="X46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X46" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y46" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z46" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -9966,7 +10188,7 @@
       </c>
       <c r="H47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -9974,7 +10196,7 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -9982,54 +10204,54 @@
       </c>
       <c r="L47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M47" s="1" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q47" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S47" s="1" cm="1">
         <f t="array" aca="1" ref="S47" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U47" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U47" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W47">
         <v>45</v>
       </c>
       <c r="X47" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X47" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y47" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y47" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z47" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -10050,55 +10272,55 @@
       </c>
       <c r="H48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K48" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M48" s="1" cm="1">
         <f t="array" aca="1" ref="M48" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O48" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q48" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S48" s="1" cm="1">
         <f t="array" aca="1" ref="S48" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U48" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U48" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10109,7 +10331,7 @@
       </c>
       <c r="X48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X48" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y48" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10134,31 +10356,31 @@
       </c>
       <c r="H49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K49" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M49" s="1" cm="1">
         <f t="array" aca="1" ref="M49" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10166,34 +10388,34 @@
       </c>
       <c r="P49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q49" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S49" s="1" cm="1">
         <f t="array" aca="1" ref="S49" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U49" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W49">
         <v>47</v>
       </c>
       <c r="X49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X49" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y49" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10205,7 +10427,7 @@
       </c>
       <c r="AA49" t="str" cm="1">
         <f t="array" aca="1" ref="AA49" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB49" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10222,11 +10444,11 @@
       </c>
       <c r="I50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K50" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10234,27 +10456,27 @@
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M50" s="1" cm="1">
         <f t="array" aca="1" ref="M50" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q50" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -10262,30 +10484,30 @@
       </c>
       <c r="S50" s="1" cm="1">
         <f t="array" aca="1" ref="S50" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="T50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U50" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W50">
         <v>48</v>
       </c>
       <c r="X50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X50" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y50" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z50" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA50" t="str" cm="1">
         <f t="array" aca="1" ref="AA50" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10302,15 +10524,15 @@
       </c>
       <c r="H51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H51" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I51" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K51" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10318,43 +10540,43 @@
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M51" s="1" cm="1">
         <f t="array" aca="1" ref="M51" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q51" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S51" s="1" cm="1">
         <f t="array" aca="1" ref="S51" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="T51" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U51" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W51">
         <v>49</v>
@@ -10369,11 +10591,11 @@
       </c>
       <c r="Z51" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="str" cm="1">
         <f t="array" aca="1" ref="AA51" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB51" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10386,7 +10608,7 @@
       </c>
       <c r="H52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H52" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I52" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10394,7 +10616,7 @@
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K52" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10402,15 +10624,15 @@
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" s="1" cm="1">
         <f t="array" aca="1" ref="M52" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10418,7 +10640,7 @@
       </c>
       <c r="P52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q52" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -10426,15 +10648,15 @@
       </c>
       <c r="R52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S52" s="1" cm="1">
         <f t="array" aca="1" ref="S52" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U52" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10445,11 +10667,11 @@
       </c>
       <c r="X52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X52" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y52" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z52" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -10457,7 +10679,7 @@
       </c>
       <c r="AA52" t="str" cm="1">
         <f t="array" aca="1" ref="AA52" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB52" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10470,31 +10692,31 @@
       </c>
       <c r="H53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H53" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I53" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K53" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M53" s="1" cm="1">
         <f t="array" aca="1" ref="M53" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10502,23 +10724,23 @@
       </c>
       <c r="P53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q53" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1" cm="1">
         <f t="array" aca="1" ref="S53" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="T53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U53" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10537,11 +10759,11 @@
       </c>
       <c r="Z53" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA53" t="str" cm="1">
         <f t="array" aca="1" ref="AA53" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB53" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10554,7 +10776,7 @@
       </c>
       <c r="H54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10562,7 +10784,7 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K54" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10570,23 +10792,23 @@
       </c>
       <c r="L54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1" cm="1">
         <f t="array" aca="1" ref="M54" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q54" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -10594,15 +10816,15 @@
       </c>
       <c r="R54" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S54" s="1" cm="1">
         <f t="array" aca="1" ref="S54" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U54" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10613,7 +10835,7 @@
       </c>
       <c r="X54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X54" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y54" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10621,7 +10843,7 @@
       </c>
       <c r="Z54" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA54" t="str" cm="1">
         <f t="array" aca="1" ref="AA54" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10638,7 +10860,7 @@
       </c>
       <c r="H55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -10646,7 +10868,7 @@
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K55" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10654,15 +10876,15 @@
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M55" s="1" cm="1">
         <f t="array" aca="1" ref="M55" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O55" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10670,38 +10892,38 @@
       </c>
       <c r="P55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q55" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S55" s="1" cm="1">
         <f t="array" aca="1" ref="S55" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U55" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U55" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W55">
         <v>53</v>
       </c>
       <c r="X55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X55" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y55" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z55" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -10722,15 +10944,15 @@
       </c>
       <c r="H56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K56" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10738,27 +10960,27 @@
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1" cm="1">
         <f t="array" aca="1" ref="M56" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q56" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -10766,11 +10988,11 @@
       </c>
       <c r="S56" s="1" cm="1">
         <f t="array" aca="1" ref="S56" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="T56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10781,15 +11003,15 @@
       </c>
       <c r="X56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X56" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y56" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z56" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA56" t="str" cm="1">
         <f t="array" aca="1" ref="AA56" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10806,15 +11028,15 @@
       </c>
       <c r="H57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="I57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K57" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -10822,15 +11044,15 @@
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M57" s="1" cm="1">
         <f t="array" aca="1" ref="M57" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10838,23 +11060,23 @@
       </c>
       <c r="P57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q57" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1" cm="1">
         <f t="array" aca="1" ref="S57" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="T57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U57" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10865,19 +11087,19 @@
       </c>
       <c r="X57" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X57" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y57" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y57" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z57" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA57" t="str" cm="1">
         <f t="array" aca="1" ref="AA57" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB57" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -10890,55 +11112,55 @@
       </c>
       <c r="H58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K58" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1" cm="1">
         <f t="array" aca="1" ref="M58" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q58" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S58" s="1" cm="1">
         <f t="array" aca="1" ref="S58" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U58" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U58" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -10953,7 +11175,7 @@
       </c>
       <c r="Y58" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y58" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z58" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -10982,58 +11204,58 @@
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K59" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M59" s="1" cm="1">
         <f t="array" aca="1" ref="M59" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q59" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Hund/Katze vorhanden</v>
+        <v>Allergiker:in - bitte weit weg</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" cm="1">
         <f t="array" aca="1" ref="S59" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="T59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U59" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U59" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="W59">
         <v>57</v>
       </c>
       <c r="X59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X59" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y59" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11058,15 +11280,15 @@
       </c>
       <c r="H60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K60" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11074,11 +11296,11 @@
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M60" s="1" cm="1">
         <f t="array" aca="1" ref="M60" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -11090,7 +11312,7 @@
       </c>
       <c r="P60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q60" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11098,26 +11320,26 @@
       </c>
       <c r="R60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S60" s="1" cm="1">
         <f t="array" aca="1" ref="S60" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="T60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U60" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U60" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W60">
         <v>58</v>
       </c>
       <c r="X60" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X60" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y60" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y60" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11125,11 +11347,11 @@
       </c>
       <c r="Z60" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA60" t="str" cm="1">
         <f t="array" aca="1" ref="AA60" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB60" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11142,7 +11364,7 @@
       </c>
       <c r="H61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11150,7 +11372,7 @@
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K61" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11158,15 +11380,15 @@
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M61" s="1" cm="1">
         <f t="array" aca="1" ref="M61" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11178,19 +11400,19 @@
       </c>
       <c r="Q61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q61" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S61" s="1" cm="1">
         <f t="array" aca="1" ref="S61" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="T61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U61" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11201,7 +11423,7 @@
       </c>
       <c r="X61" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X61" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y61" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y61" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11209,7 +11431,7 @@
       </c>
       <c r="Z61" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA61" t="str" cm="1">
         <f t="array" aca="1" ref="AA61" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11226,7 +11448,7 @@
       </c>
       <c r="H62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="I62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I62" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11234,7 +11456,7 @@
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K62" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11242,11 +11464,11 @@
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M62" s="1" cm="1">
         <f t="array" aca="1" ref="M62" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -11254,11 +11476,11 @@
       </c>
       <c r="O62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q62" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11266,34 +11488,34 @@
       </c>
       <c r="R62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S62" s="1" cm="1">
         <f t="array" aca="1" ref="S62" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U62" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W62">
         <v>60</v>
       </c>
       <c r="X62" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X62" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y62" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y62" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z62" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA62" t="str" cm="1">
         <f t="array" aca="1" ref="AA62" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11310,55 +11532,55 @@
       </c>
       <c r="H63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I63" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" ref="J63:J69" ca="1" si="6">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K63" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ref="L63:L69" ca="1" si="7">RANDBETWEEN(0,10)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M63" s="1" cm="1">
         <f t="array" aca="1" ref="M63" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ref="N63:N69" ca="1" si="8">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ref="P63:P69" ca="1" si="9">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q63" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne in der Nähe</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" ref="R63:R69" ca="1" si="10">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S63" s="1" cm="1">
         <f t="array" aca="1" ref="S63" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ref="T63:T69" ca="1" si="11">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U63" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11369,7 +11591,7 @@
       </c>
       <c r="X63" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X63" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y63" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y63" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11377,11 +11599,11 @@
       </c>
       <c r="Z63" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA63" t="str" cm="1">
         <f t="array" aca="1" ref="AA63" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB63" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11394,15 +11616,15 @@
       </c>
       <c r="H64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H64" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I64" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K64" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11410,15 +11632,15 @@
       </c>
       <c r="L64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M64" s="1" cm="1">
         <f t="array" aca="1" ref="M64" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11426,23 +11648,23 @@
       </c>
       <c r="P64" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q64" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Gerne Distanz zu Hund/Katze</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1" cm="1">
         <f t="array" aca="1" ref="S64" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U64" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11457,15 +11679,15 @@
       </c>
       <c r="Y64" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y64" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z64" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA64" t="str" cm="1">
         <f t="array" aca="1" ref="AA64" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB64" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11478,7 +11700,7 @@
       </c>
       <c r="H65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>5,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="I65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I65" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11490,7 +11712,7 @@
       </c>
       <c r="K65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K65" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -11498,11 +11720,11 @@
       </c>
       <c r="M65" s="1" cm="1">
         <f t="array" aca="1" ref="M65" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O65" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11510,7 +11732,7 @@
       </c>
       <c r="P65" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q65" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11518,26 +11740,26 @@
       </c>
       <c r="R65" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S65" s="1" cm="1">
         <f t="array" aca="1" ref="S65" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U65" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U65" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W65">
         <v>63</v>
       </c>
       <c r="X65" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X65" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y65" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y65" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11545,7 +11767,7 @@
       </c>
       <c r="Z65" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA65" t="str" cm="1">
         <f t="array" aca="1" ref="AA65" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11562,15 +11784,15 @@
       </c>
       <c r="H66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H66" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="I66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I66" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K66" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
@@ -11578,15 +11800,15 @@
       </c>
       <c r="L66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M66" s="1" cm="1">
         <f t="array" aca="1" ref="M66" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11594,19 +11816,19 @@
       </c>
       <c r="P66" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q66" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne in der Nähe</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S66" s="1" cm="1">
         <f t="array" aca="1" ref="S66" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -11614,14 +11836,14 @@
       </c>
       <c r="U66" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="W66">
         <v>64</v>
       </c>
       <c r="X66" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X66" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y66" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y66" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11629,11 +11851,11 @@
       </c>
       <c r="Z66" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA66" t="str" cm="1">
         <f t="array" aca="1" ref="AA66" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB66" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11646,31 +11868,31 @@
       </c>
       <c r="H67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K67" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher tiefer</v>
+        <v>Eher höher</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M67" s="1" cm="1">
         <f t="array" aca="1" ref="M67" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11678,23 +11900,23 @@
       </c>
       <c r="P67" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q67" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Gerne Distanz zu Hund/Katze</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S67" s="1" cm="1">
         <f t="array" aca="1" ref="S67" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U67" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11705,7 +11927,7 @@
       </c>
       <c r="X67" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X67" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y67" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y67" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11713,7 +11935,7 @@
       </c>
       <c r="Z67" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA67" t="str" cm="1">
         <f t="array" aca="1" ref="AA67" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11730,19 +11952,19 @@
       </c>
       <c r="H68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="I68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K68" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -11750,35 +11972,35 @@
       </c>
       <c r="M68" s="1" cm="1">
         <f t="array" aca="1" ref="M68" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="P68" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q68" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
-        <v>Allergiker:in - bitte weit weg</v>
+        <v>Hund/Katze vorhanden</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S68" s="1" cm="1">
         <f t="array" aca="1" ref="S68" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U68" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11789,19 +12011,19 @@
       </c>
       <c r="X68" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X68" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y68" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y68" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z68" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA68" t="str" cm="1">
         <f t="array" aca="1" ref="AA68" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB68" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11814,39 +12036,39 @@
       </c>
       <c r="H69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="I69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K69" ca="1">INDEX(Etage_tabelle[],RANDBETWEEN(1,COUNTA(Etage_tabelle[])))</f>
-        <v>Eher höher</v>
+        <v>Eher tiefer</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M69" s="1" cm="1">
         <f t="array" aca="1" ref="M69" ca="1">INDEX(Quelle_Zufallswerte[id],RANDBETWEEN(1,COUNTA(Quelle_Zufallswerte[id])))</f>
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="O69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Q69" ca="1">INDEX(Haustier_Tabelle[],RANDBETWEEN(1,COUNTA(Haustier_Tabelle[])))</f>
@@ -11858,11 +12080,11 @@
       </c>
       <c r="S69" s="1" cm="1">
         <f t="array" aca="1" ref="S69" ca="1">INDEX(Wohnungsdaten_tabelle[WohnungsID],RANDBETWEEN(1,COUNTA(Wohnungsdaten_tabelle[WohnungsID])))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T69" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U69" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="U69" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11873,11 +12095,11 @@
       </c>
       <c r="X69" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X69" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y69" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y69" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z69" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -11898,19 +12120,19 @@
       </c>
       <c r="X70" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X70" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y70" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y70" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z70" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA70" t="str" cm="1">
         <f t="array" aca="1" ref="AA70" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB70" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11923,15 +12145,15 @@
       </c>
       <c r="X71" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X71" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y71" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y71" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z71" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA71" t="str" cm="1">
         <f t="array" aca="1" ref="AA71" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11948,7 +12170,7 @@
       </c>
       <c r="X72" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X72" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y72" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y72" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11956,11 +12178,11 @@
       </c>
       <c r="Z72" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA72" t="str" cm="1">
         <f t="array" aca="1" ref="AA72" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB72" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -11973,7 +12195,7 @@
       </c>
       <c r="X73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X73" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y73" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -11981,7 +12203,7 @@
       </c>
       <c r="Z73" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA73" t="str" cm="1">
         <f t="array" aca="1" ref="AA73" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -11998,7 +12220,7 @@
       </c>
       <c r="X74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X74" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y74" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12006,11 +12228,11 @@
       </c>
       <c r="Z74" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA74" t="str" cm="1">
         <f t="array" aca="1" ref="AA74" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB74" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12023,19 +12245,19 @@
       </c>
       <c r="X75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X75" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg</v>
       </c>
       <c r="Y75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y75" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z75" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA75" t="str" cm="1">
         <f t="array" aca="1" ref="AA75" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB75" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12048,11 +12270,11 @@
       </c>
       <c r="X76" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X76" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y76" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y76" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z76" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12073,7 +12295,7 @@
       </c>
       <c r="X77" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X77" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y77" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y77" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12081,7 +12303,7 @@
       </c>
       <c r="Z77" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA77" t="str" cm="1">
         <f t="array" aca="1" ref="AA77" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12098,11 +12320,11 @@
       </c>
       <c r="X78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X78" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y78" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Punkt</v>
       </c>
       <c r="Z78" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12123,7 +12345,7 @@
       </c>
       <c r="X79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X79" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y79" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12131,11 +12353,11 @@
       </c>
       <c r="Z79" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA79" t="str" cm="1">
         <f t="array" aca="1" ref="AA79" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB79" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12152,7 +12374,7 @@
       </c>
       <c r="Y80" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y80" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z80" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12160,7 +12382,7 @@
       </c>
       <c r="AA80" t="str" cm="1">
         <f t="array" aca="1" ref="AA80" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB80" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12173,19 +12395,19 @@
       </c>
       <c r="X81" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X81" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y81" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y81" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z81" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA81" t="str" cm="1">
         <f t="array" aca="1" ref="AA81" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB81" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12198,11 +12420,11 @@
       </c>
       <c r="X82" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X82" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y82" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y82" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Riegel</v>
+        <v>Winkel</v>
       </c>
       <c r="Z82" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12214,7 +12436,7 @@
       </c>
       <c r="AB82" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
     </row>
     <row r="83" spans="23:28" x14ac:dyDescent="0.35">
@@ -12223,7 +12445,7 @@
       </c>
       <c r="X83" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X83" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>2,5 ZiWg</v>
       </c>
       <c r="Y83" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y83" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12231,11 +12453,11 @@
       </c>
       <c r="Z83" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA83" t="str" cm="1">
         <f t="array" aca="1" ref="AA83" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB83" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12248,19 +12470,19 @@
       </c>
       <c r="X84" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X84" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y84" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y84" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Winkel</v>
       </c>
       <c r="Z84" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA84" t="str" cm="1">
         <f t="array" aca="1" ref="AA84" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB84" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12273,7 +12495,7 @@
       </c>
       <c r="X85" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X85" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y85" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y85" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12281,11 +12503,11 @@
       </c>
       <c r="Z85" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA85" t="str" cm="1">
         <f t="array" aca="1" ref="AA85" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB85" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12298,11 +12520,11 @@
       </c>
       <c r="X86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X86" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>2,5 ZiWg</v>
+        <v>3,5 ZiWg klein</v>
       </c>
       <c r="Y86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y86" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z86" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
@@ -12310,7 +12532,7 @@
       </c>
       <c r="AA86" t="str" cm="1">
         <f t="array" aca="1" ref="AA86" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Ja</v>
+        <v>Nein</v>
       </c>
       <c r="AB86" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12323,7 +12545,7 @@
       </c>
       <c r="X87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X87" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg klein</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y87" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12348,19 +12570,19 @@
       </c>
       <c r="X88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X88" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>1,5 ZiWg</v>
+        <v>5,5 ZiWg</v>
       </c>
       <c r="Y88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y88" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Winkel</v>
+        <v>Riegel</v>
       </c>
       <c r="Z88" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA88" t="str" cm="1">
         <f t="array" aca="1" ref="AA88" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
-        <v>Nein</v>
+        <v>Ja</v>
       </c>
       <c r="AB88" s="2" t="str">
         <f ca="1">IF(AND(AND(Wohnungsdaten_tabelle10[[#This Row],[Art]]=$C$9,Wohnungsdaten_tabelle10[[#This Row],[Gebäude]]=$A$3,Wohnungsdaten_tabelle10[[#This Row],[Etage]]=1)),"Ja","Nein")</f>
@@ -12373,7 +12595,7 @@
       </c>
       <c r="X89" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X89" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>3,5 ZiWg</v>
+        <v>4,5 ZiWg</v>
       </c>
       <c r="Y89" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y89" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
@@ -12381,7 +12603,7 @@
       </c>
       <c r="Z89" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA89" t="str" cm="1">
         <f t="array" aca="1" ref="AA89" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12398,15 +12620,15 @@
       </c>
       <c r="X90" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="X90" ca="1">INDEX(Wohnungsart_tab[],RANDBETWEEN(1,COUNTA(Wohnungsart_tab[])))</f>
-        <v>4,5 ZiWg</v>
+        <v>1,5 ZiWg</v>
       </c>
       <c r="Y90" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="Y90" ca="1">INDEX(Gebäude_tabelle[],RANDBETWEEN(1,COUNTA(Gebäude_tabelle[])))</f>
-        <v>Punkt</v>
+        <v>Riegel</v>
       </c>
       <c r="Z90" s="2">
         <f ca="1">IF("Punkt"=Wohnungsdaten_tabelle10[[#This Row],[Gebäude]],RANDBETWEEN(1,4),RANDBETWEEN(1,3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA90" t="str" cm="1">
         <f t="array" aca="1" ref="AA90" ca="1">INDEX(KleWoh_Tabelle[],RANDBETWEEN(1,COUNTA(KleWoh_Tabelle[])))</f>
@@ -12424,8 +12646,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="8">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -12433,6 +12655,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>